--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamzi\DIPLOM\fmh_android_15_03_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBB92D1-584E-4A3D-8BF4-89F005EB81D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53C5877-87D5-4330-9FB3-F7491EC5E513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="282">
   <si>
     <t>ID</t>
   </si>
@@ -711,6 +711,162 @@
   <si>
     <t>Страница Main</t>
   </si>
+  <si>
+    <t>2 Поля Category, Title, Publication date, Time, Description оставить пустыми</t>
+  </si>
+  <si>
+    <t>2 Поля Category, Title, Publication date, Time, Description пустые</t>
+  </si>
+  <si>
+    <t>3 Нажать кнопку Save</t>
+  </si>
+  <si>
+    <t>3 В полях Category, Title, Publication date, Time, Description отображается красный восклицательный знак в красном круге</t>
+  </si>
+  <si>
+    <t>4 Поля Title, Description заполнить пробелами</t>
+  </si>
+  <si>
+    <t>4  Поля Category, Publication date, Time, Description пустые. Поля Title и Description заполнены пробелами</t>
+  </si>
+  <si>
+    <t>5 Нажать кнопку Save</t>
+  </si>
+  <si>
+    <t>5 В полях Category, Title, Publication date, Time, Description отображается красный восклицательный знак в красном круге</t>
+  </si>
+  <si>
+    <t>6 Поля Title, Description заполнить спецсимволами !"№;%:?*</t>
+  </si>
+  <si>
+    <t>6 Поля Category, Publication date, Time, Description пустые. Поля Title и Description заполнены спецсимволами !"№;%:?*</t>
+  </si>
+  <si>
+    <t>7 Нажать кнопку Save</t>
+  </si>
+  <si>
+    <t>7 В полях Category, Title, Publication date, Time, Description отображается красный восклицательный знак в красном круге</t>
+  </si>
+  <si>
+    <t>Не успешная авторизация с невалидными данными</t>
+  </si>
+  <si>
+    <t>1 Заполнить поле для ввода Login пробелами</t>
+  </si>
+  <si>
+    <t>2 Заполнить поле для ввода Password пробелами</t>
+  </si>
+  <si>
+    <t>1 В поле для ввода Login отображаются пробелы</t>
+  </si>
+  <si>
+    <t>2 В поле для ввода Password отображаются пробелы</t>
+  </si>
+  <si>
+    <t>3 В нижней части экрана отображается сообщение "Login and password cannot be empty"</t>
+  </si>
+  <si>
+    <t>4 Заполнить поле для ввода Login в верхнем регистре LOGIN2</t>
+  </si>
+  <si>
+    <t>5 Заполнить поле для ввода Password в верхнем регистре PASSWORD2</t>
+  </si>
+  <si>
+    <t>4 В поле для ввода Login отображается значение LOGIN2</t>
+  </si>
+  <si>
+    <t>5 В поле для ввода Password отображается значение PASSWORD2</t>
+  </si>
+  <si>
+    <t>6 В нижней части экрана отображается сообщение "Somethig went wrong. Try again later."</t>
+  </si>
+  <si>
+    <t>6 Нажать кнопку “sign in”</t>
+  </si>
+  <si>
+    <t>7 Заполнить поле для ввода Login спецсимволами !"№;%:?</t>
+  </si>
+  <si>
+    <t>8 Заполнить поле для ввода Password спецсимволами !"№;%:?</t>
+  </si>
+  <si>
+    <t>7 В поле для ввода Login отображаются спецсимволы !"№;%:?</t>
+  </si>
+  <si>
+    <t>8 В поле для ввода Password отображаются спецсимволы !"№;%:?</t>
+  </si>
+  <si>
+    <t>9 Нажать кнопку “sign in”</t>
+  </si>
+  <si>
+    <t>9 В нижней части экрана отображается сообщение "Somethig went wrong. Try again later."</t>
+  </si>
+  <si>
+    <t>10 Заполнить поле для ввода Login одним символом 5</t>
+  </si>
+  <si>
+    <t>11 Заполнить поле для ввода Password одним символом 5</t>
+  </si>
+  <si>
+    <t>11 В поле для ввода Password отображается один символ 5</t>
+  </si>
+  <si>
+    <t>10 В поле для ввода Login отображается один символ 5</t>
+  </si>
+  <si>
+    <t>12 Нажать кнопку “sign in”</t>
+  </si>
+  <si>
+    <t>12 В нижней части экрана отображается сообщение "Somethig went wrong. Try again later."</t>
+  </si>
+  <si>
+    <t>13 Заполнить поле для ввода Login значением из 500 символов</t>
+  </si>
+  <si>
+    <t>14 Заполнить поле для ввода Password значением из 500 символов</t>
+  </si>
+  <si>
+    <t>15 Нажать кнопку “sign in”</t>
+  </si>
+  <si>
+    <t>13 В поле для ввода Login отображается значение из 500 символов</t>
+  </si>
+  <si>
+    <t>14 В поле для ввода Password отображается значение из 500 символов</t>
+  </si>
+  <si>
+    <t>15 В нижней части экрана отображается сообщение "Somethig went wrong. Try again later."</t>
+  </si>
+  <si>
+    <t>16 Заполнить поле для ввода Login значением на кириллице Логин</t>
+  </si>
+  <si>
+    <t>16 В поле для ввода Login отображается значение Логин</t>
+  </si>
+  <si>
+    <t>17 Заполнить поле для ввода Password значением на кириллице Пароль</t>
+  </si>
+  <si>
+    <t>17 В поле для ввода Password отображается значение Пароль</t>
+  </si>
+  <si>
+    <t>18 Нажать кнопку “sign in”</t>
+  </si>
+  <si>
+    <t>18 В нижней части экрана отображается сообщение "Somethig went wrong. Try again later."</t>
+  </si>
+  <si>
+    <t>Ошибка добавления новости на странице control panel</t>
+  </si>
+  <si>
+    <t>8 Поля Title, Description заполнить одним символом</t>
+  </si>
+  <si>
+    <t>8 Поля Category, Publication date, Time, Description пустые. Поля Title и Description заполнены одним символом</t>
+  </si>
+  <si>
+    <t>9 В полях Category, Title, Publication date, Time, Description отображается красный восклицательный знак в красном круге</t>
+  </si>
 </sst>
 </file>
 
@@ -775,7 +931,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -848,11 +1004,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -888,27 +1077,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -935,6 +1103,42 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1255,8 +1459,8 @@
   </sheetPr>
   <dimension ref="A1:AB863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B135" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139:B144"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1315,17 +1519,17 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="23">
+      <c r="C2" s="19"/>
+      <c r="D2" s="16">
         <v>1</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -1357,11 +1561,11 @@
       <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
@@ -1391,11 +1595,11 @@
       <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="22"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
@@ -1635,17 +1839,17 @@
       <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15">
+      <c r="A12" s="23">
         <v>2</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23">
         <v>2</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -1677,11 +1881,11 @@
       <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="14"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="10" t="s">
         <v>17</v>
       </c>
@@ -1711,11 +1915,11 @@
       <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="14"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="10" t="s">
         <v>12</v>
       </c>
@@ -1745,17 +1949,17 @@
       <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15">
+      <c r="A15" s="23">
         <v>3</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23">
         <v>1</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -1787,11 +1991,11 @@
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="14"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="10" t="s">
         <v>24</v>
       </c>
@@ -1821,17 +2025,17 @@
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="15">
+      <c r="A17" s="23">
         <v>4</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23">
         <v>1</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="10" t="s">
@@ -1863,11 +2067,11 @@
       <c r="AB17" s="2"/>
     </row>
     <row r="18" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="14"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="10" t="s">
         <v>32</v>
       </c>
@@ -1897,11 +2101,11 @@
       <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A19" s="15"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="14"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="10" t="s">
         <v>30</v>
       </c>
@@ -1931,11 +2135,11 @@
       <c r="AB19" s="2"/>
     </row>
     <row r="20" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="14"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="10" t="s">
         <v>188</v>
       </c>
@@ -1965,11 +2169,11 @@
       <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="14"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="10" t="s">
         <v>190</v>
       </c>
@@ -1999,11 +2203,11 @@
       <c r="AB21" s="2"/>
     </row>
     <row r="22" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="14"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="10" t="s">
         <v>192</v>
       </c>
@@ -2035,11 +2239,11 @@
       <c r="AB22" s="2"/>
     </row>
     <row r="23" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="15"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="14"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="10" t="s">
         <v>194</v>
       </c>
@@ -2069,11 +2273,11 @@
       <c r="AB23" s="2"/>
     </row>
     <row r="24" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="15"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="14"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="10" t="s">
         <v>196</v>
       </c>
@@ -2103,17 +2307,17 @@
       <c r="AB24" s="2"/>
     </row>
     <row r="25" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15">
+      <c r="A25" s="23">
         <v>5</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15">
+      <c r="C25" s="23"/>
+      <c r="D25" s="23">
         <v>1</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F25" s="10" t="s">
@@ -2145,11 +2349,11 @@
       <c r="AB25" s="2"/>
     </row>
     <row r="26" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="15"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="14"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="10" t="s">
         <v>36</v>
       </c>
@@ -2179,11 +2383,11 @@
       <c r="AB26" s="2"/>
     </row>
     <row r="27" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="15"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="14"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="10" t="s">
         <v>37</v>
       </c>
@@ -2213,11 +2417,11 @@
       <c r="AB27" s="2"/>
     </row>
     <row r="28" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="15"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="14"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="10" t="s">
         <v>39</v>
       </c>
@@ -2247,11 +2451,11 @@
       <c r="AB28" s="2"/>
     </row>
     <row r="29" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="15"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="14"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="10" t="s">
         <v>42</v>
       </c>
@@ -2281,11 +2485,11 @@
       <c r="AB29" s="2"/>
     </row>
     <row r="30" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="15"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="14"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="10" t="s">
         <v>44</v>
       </c>
@@ -2315,17 +2519,17 @@
       <c r="AB30" s="2"/>
     </row>
     <row r="31" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="15">
+      <c r="A31" s="23">
         <v>6</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23">
         <v>1</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F31" s="10" t="s">
@@ -2357,11 +2561,11 @@
       <c r="AB31" s="2"/>
     </row>
     <row r="32" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="10" t="s">
         <v>47</v>
       </c>
@@ -2391,11 +2595,11 @@
       <c r="AB32" s="2"/>
     </row>
     <row r="33" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="10" t="s">
         <v>37</v>
       </c>
@@ -2425,11 +2629,11 @@
       <c r="AB33" s="2"/>
     </row>
     <row r="34" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="10" t="s">
         <v>49</v>
       </c>
@@ -2459,11 +2663,11 @@
       <c r="AB34" s="2"/>
     </row>
     <row r="35" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="10" t="s">
         <v>51</v>
       </c>
@@ -2493,17 +2697,17 @@
       <c r="AB35" s="2"/>
     </row>
     <row r="36" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A36" s="15">
+      <c r="A36" s="23">
         <v>7</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15">
+      <c r="C36" s="23"/>
+      <c r="D36" s="23">
         <v>2</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="22" t="s">
         <v>54</v>
       </c>
       <c r="F36" s="10" t="s">
@@ -2535,11 +2739,11 @@
       <c r="AB36" s="2"/>
     </row>
     <row r="37" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="15"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="14"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="10" t="s">
         <v>56</v>
       </c>
@@ -2569,11 +2773,11 @@
       <c r="AB37" s="2"/>
     </row>
     <row r="38" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="15"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="14"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="22"/>
       <c r="F38" s="10" t="s">
         <v>58</v>
       </c>
@@ -2603,11 +2807,11 @@
       <c r="AB38" s="2"/>
     </row>
     <row r="39" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A39" s="15"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="14"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="22"/>
       <c r="F39" s="10" t="s">
         <v>60</v>
       </c>
@@ -2637,11 +2841,11 @@
       <c r="AB39" s="2"/>
     </row>
     <row r="40" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="15"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="14"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22"/>
       <c r="F40" s="10" t="s">
         <v>62</v>
       </c>
@@ -2671,11 +2875,11 @@
       <c r="AB40" s="2"/>
     </row>
     <row r="41" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A41" s="15"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="14"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="22"/>
       <c r="F41" s="10" t="s">
         <v>64</v>
       </c>
@@ -2705,11 +2909,11 @@
       <c r="AB41" s="2"/>
     </row>
     <row r="42" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A42" s="15"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="14"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="22"/>
       <c r="F42" s="10" t="s">
         <v>67</v>
       </c>
@@ -2739,11 +2943,11 @@
       <c r="AB42" s="2"/>
     </row>
     <row r="43" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="15"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="14"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="22"/>
       <c r="F43" s="10" t="s">
         <v>69</v>
       </c>
@@ -2773,11 +2977,11 @@
       <c r="AB43" s="2"/>
     </row>
     <row r="44" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="15"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="14"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="22"/>
       <c r="F44" s="10" t="s">
         <v>71</v>
       </c>
@@ -2807,11 +3011,11 @@
       <c r="AB44" s="2"/>
     </row>
     <row r="45" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="15"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="14"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="22"/>
       <c r="F45" s="10" t="s">
         <v>73</v>
       </c>
@@ -2841,11 +3045,11 @@
       <c r="AB45" s="2"/>
     </row>
     <row r="46" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A46" s="15"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="14"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="22"/>
       <c r="F46" s="10" t="s">
         <v>75</v>
       </c>
@@ -2875,11 +3079,11 @@
       <c r="AB46" s="2"/>
     </row>
     <row r="47" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="15"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="14"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="22"/>
       <c r="F47" s="10" t="s">
         <v>77</v>
       </c>
@@ -2909,11 +3113,11 @@
       <c r="AB47" s="2"/>
     </row>
     <row r="48" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="15"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="14"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="22"/>
       <c r="F48" s="10" t="s">
         <v>79</v>
       </c>
@@ -2943,11 +3147,11 @@
       <c r="AB48" s="2"/>
     </row>
     <row r="49" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A49" s="15"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="14"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="22"/>
       <c r="F49" s="10" t="s">
         <v>81</v>
       </c>
@@ -2977,11 +3181,11 @@
       <c r="AB49" s="2"/>
     </row>
     <row r="50" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="15"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="14"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="22"/>
       <c r="F50" s="10" t="s">
         <v>83</v>
       </c>
@@ -3011,17 +3215,17 @@
       <c r="AB50" s="2"/>
     </row>
     <row r="51" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="13">
+      <c r="A51" s="25">
         <v>8</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13">
+      <c r="C51" s="25"/>
+      <c r="D51" s="25">
         <v>1</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="26" t="s">
         <v>54</v>
       </c>
       <c r="F51" s="10" t="s">
@@ -3053,11 +3257,11 @@
       <c r="AB51" s="2"/>
     </row>
     <row r="52" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="18"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="26"/>
       <c r="F52" s="10" t="s">
         <v>224</v>
       </c>
@@ -3087,11 +3291,11 @@
       <c r="AB52" s="2"/>
     </row>
     <row r="53" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="18"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
       <c r="F53" s="10" t="s">
         <v>88</v>
       </c>
@@ -3121,11 +3325,11 @@
       <c r="AB53" s="2"/>
     </row>
     <row r="54" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="18"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="26"/>
       <c r="F54" s="10" t="s">
         <v>49</v>
       </c>
@@ -3155,17 +3359,17 @@
       <c r="AB54" s="2"/>
     </row>
     <row r="55" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="13">
+      <c r="A55" s="25">
         <v>9</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13">
+      <c r="C55" s="25"/>
+      <c r="D55" s="25">
         <v>2</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="26" t="s">
         <v>87</v>
       </c>
       <c r="F55" s="10" t="s">
@@ -3197,11 +3401,11 @@
       <c r="AB55" s="2"/>
     </row>
     <row r="56" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A56" s="13"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="18"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="26"/>
       <c r="F56" s="10" t="s">
         <v>56</v>
       </c>
@@ -3231,11 +3435,11 @@
       <c r="AB56" s="2"/>
     </row>
     <row r="57" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="13"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="18"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="26"/>
       <c r="F57" s="10" t="s">
         <v>58</v>
       </c>
@@ -3265,11 +3469,11 @@
       <c r="AB57" s="2"/>
     </row>
     <row r="58" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A58" s="13"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="18"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26"/>
       <c r="F58" s="10" t="s">
         <v>60</v>
       </c>
@@ -3299,11 +3503,11 @@
       <c r="AB58" s="2"/>
     </row>
     <row r="59" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="13"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="18"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="26"/>
       <c r="F59" s="10" t="s">
         <v>62</v>
       </c>
@@ -3333,11 +3537,11 @@
       <c r="AB59" s="2"/>
     </row>
     <row r="60" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A60" s="13"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="18"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="26"/>
       <c r="F60" s="10" t="s">
         <v>64</v>
       </c>
@@ -3367,11 +3571,11 @@
       <c r="AB60" s="2"/>
     </row>
     <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="13"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="18"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="26"/>
       <c r="F61" s="10" t="s">
         <v>67</v>
       </c>
@@ -3401,11 +3605,11 @@
       <c r="AB61" s="2"/>
     </row>
     <row r="62" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="13"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="18"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="26"/>
       <c r="F62" s="10" t="s">
         <v>69</v>
       </c>
@@ -3435,11 +3639,11 @@
       <c r="AB62" s="2"/>
     </row>
     <row r="63" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="13"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="18"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26"/>
       <c r="F63" s="10" t="s">
         <v>71</v>
       </c>
@@ -3469,11 +3673,11 @@
       <c r="AB63" s="2"/>
     </row>
     <row r="64" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="13"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="18"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="26"/>
       <c r="F64" s="10" t="s">
         <v>73</v>
       </c>
@@ -3503,11 +3707,11 @@
       <c r="AB64" s="2"/>
     </row>
     <row r="65" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A65" s="13"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="18"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="26"/>
       <c r="F65" s="10" t="s">
         <v>75</v>
       </c>
@@ -3537,11 +3741,11 @@
       <c r="AB65" s="2"/>
     </row>
     <row r="66" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="13"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="18"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="26"/>
       <c r="F66" s="10" t="s">
         <v>77</v>
       </c>
@@ -3571,11 +3775,11 @@
       <c r="AB66" s="2"/>
     </row>
     <row r="67" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="13"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="18"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="26"/>
       <c r="F67" s="10" t="s">
         <v>79</v>
       </c>
@@ -3605,11 +3809,11 @@
       <c r="AB67" s="2"/>
     </row>
     <row r="68" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A68" s="13"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="18"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="26"/>
       <c r="F68" s="10" t="s">
         <v>81</v>
       </c>
@@ -3639,11 +3843,11 @@
       <c r="AB68" s="2"/>
     </row>
     <row r="69" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="13"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="18"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="26"/>
       <c r="F69" s="10" t="s">
         <v>83</v>
       </c>
@@ -3673,11 +3877,11 @@
       <c r="AB69" s="2"/>
     </row>
     <row r="70" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A70" s="13"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="18"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="26"/>
       <c r="F70" s="10" t="s">
         <v>92</v>
       </c>
@@ -3707,11 +3911,11 @@
       <c r="AB70" s="2"/>
     </row>
     <row r="71" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A71" s="13"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="18"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="26"/>
       <c r="F71" s="10" t="s">
         <v>95</v>
       </c>
@@ -3741,11 +3945,11 @@
       <c r="AB71" s="2"/>
     </row>
     <row r="72" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A72" s="13"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="18"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="26"/>
       <c r="F72" s="10" t="s">
         <v>96</v>
       </c>
@@ -3775,11 +3979,11 @@
       <c r="AB72" s="2"/>
     </row>
     <row r="73" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A73" s="13"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="18"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="26"/>
       <c r="F73" s="10" t="s">
         <v>98</v>
       </c>
@@ -3809,11 +4013,11 @@
       <c r="AB73" s="2"/>
     </row>
     <row r="74" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A74" s="13"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="18"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="26"/>
       <c r="F74" s="10" t="s">
         <v>100</v>
       </c>
@@ -3843,11 +4047,11 @@
       <c r="AB74" s="2"/>
     </row>
     <row r="75" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A75" s="13"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="18"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="26"/>
       <c r="F75" s="10" t="s">
         <v>102</v>
       </c>
@@ -3877,11 +4081,11 @@
       <c r="AB75" s="2"/>
     </row>
     <row r="76" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="13"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="18"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="26"/>
       <c r="F76" s="10" t="s">
         <v>104</v>
       </c>
@@ -3911,17 +4115,17 @@
       <c r="AB76" s="2"/>
     </row>
     <row r="77" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="15">
+      <c r="A77" s="23">
         <v>10</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15">
+      <c r="C77" s="23"/>
+      <c r="D77" s="23">
         <v>1</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="22" t="s">
         <v>87</v>
       </c>
       <c r="F77" s="10" t="s">
@@ -3953,11 +4157,11 @@
       <c r="AB77" s="2"/>
     </row>
     <row r="78" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A78" s="15"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="14"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="22"/>
       <c r="F78" s="10" t="s">
         <v>56</v>
       </c>
@@ -3987,11 +4191,11 @@
       <c r="AB78" s="2"/>
     </row>
     <row r="79" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A79" s="15"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="14"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="22"/>
       <c r="F79" s="10" t="s">
         <v>114</v>
       </c>
@@ -4021,11 +4225,11 @@
       <c r="AB79" s="2"/>
     </row>
     <row r="80" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="15"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="14"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="22"/>
       <c r="F80" s="10" t="s">
         <v>110</v>
       </c>
@@ -4055,11 +4259,11 @@
       <c r="AB80" s="2"/>
     </row>
     <row r="81" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="15"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="14"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="22"/>
       <c r="F81" s="10" t="s">
         <v>112</v>
       </c>
@@ -4089,11 +4293,11 @@
       <c r="AB81" s="2"/>
     </row>
     <row r="82" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A82" s="15"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="14"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="22"/>
       <c r="F82" s="10" t="s">
         <v>124</v>
       </c>
@@ -4123,11 +4327,11 @@
       <c r="AB82" s="2"/>
     </row>
     <row r="83" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="15"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="14"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="22"/>
       <c r="F83" s="10" t="s">
         <v>115</v>
       </c>
@@ -4157,11 +4361,11 @@
       <c r="AB83" s="2"/>
     </row>
     <row r="84" spans="1:28" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="15"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="14"/>
+      <c r="A84" s="23"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="22"/>
       <c r="F84" s="10" t="s">
         <v>119</v>
       </c>
@@ -4191,11 +4395,11 @@
       <c r="AB84" s="2"/>
     </row>
     <row r="85" spans="1:28" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="15"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="14"/>
+      <c r="A85" s="23"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="22"/>
       <c r="F85" s="10" t="s">
         <v>121</v>
       </c>
@@ -4225,11 +4429,11 @@
       <c r="AB85" s="2"/>
     </row>
     <row r="86" spans="1:28" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="15"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="14"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="22"/>
       <c r="F86" s="10" t="s">
         <v>123</v>
       </c>
@@ -4259,17 +4463,17 @@
       <c r="AB86" s="2"/>
     </row>
     <row r="87" spans="1:28" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="13">
+      <c r="A87" s="25">
         <v>11</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15">
+      <c r="C87" s="23"/>
+      <c r="D87" s="23">
         <v>2</v>
       </c>
-      <c r="E87" s="14" t="s">
+      <c r="E87" s="22" t="s">
         <v>87</v>
       </c>
       <c r="F87" s="10" t="s">
@@ -4301,11 +4505,11 @@
       <c r="AB87" s="2"/>
     </row>
     <row r="88" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A88" s="13"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="14"/>
+      <c r="A88" s="25"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="22"/>
       <c r="F88" s="10" t="s">
         <v>56</v>
       </c>
@@ -4335,11 +4539,11 @@
       <c r="AB88" s="2"/>
     </row>
     <row r="89" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="13"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="14"/>
+      <c r="A89" s="25"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="22"/>
       <c r="F89" s="10" t="s">
         <v>114</v>
       </c>
@@ -4369,11 +4573,11 @@
       <c r="AB89" s="2"/>
     </row>
     <row r="90" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A90" s="13"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="14"/>
+      <c r="A90" s="25"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="22"/>
       <c r="F90" s="10" t="s">
         <v>110</v>
       </c>
@@ -4403,11 +4607,11 @@
       <c r="AB90" s="2"/>
     </row>
     <row r="91" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="13"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="14"/>
+      <c r="A91" s="25"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="22"/>
       <c r="F91" s="10" t="s">
         <v>112</v>
       </c>
@@ -4437,11 +4641,11 @@
       <c r="AB91" s="2"/>
     </row>
     <row r="92" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="13"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="14"/>
+      <c r="A92" s="25"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="22"/>
       <c r="F92" s="10" t="s">
         <v>118</v>
       </c>
@@ -4471,11 +4675,11 @@
       <c r="AB92" s="2"/>
     </row>
     <row r="93" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="13"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="14"/>
+      <c r="A93" s="25"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="22"/>
       <c r="F93" s="10" t="s">
         <v>115</v>
       </c>
@@ -4505,11 +4709,11 @@
       <c r="AB93" s="2"/>
     </row>
     <row r="94" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="13"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="14"/>
+      <c r="A94" s="25"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="22"/>
       <c r="F94" s="10" t="s">
         <v>119</v>
       </c>
@@ -4539,11 +4743,11 @@
       <c r="AB94" s="2"/>
     </row>
     <row r="95" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="13"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="14"/>
+      <c r="A95" s="25"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="22"/>
       <c r="F95" s="10" t="s">
         <v>121</v>
       </c>
@@ -4573,11 +4777,11 @@
       <c r="AB95" s="2"/>
     </row>
     <row r="96" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="13"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="14"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="22"/>
       <c r="F96" s="10" t="s">
         <v>123</v>
       </c>
@@ -4607,11 +4811,11 @@
       <c r="AB96" s="2"/>
     </row>
     <row r="97" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="13"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="14"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="22"/>
       <c r="F97" s="10" t="s">
         <v>129</v>
       </c>
@@ -4641,17 +4845,17 @@
       <c r="AB97" s="2"/>
     </row>
     <row r="98" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="13">
+      <c r="A98" s="25">
         <v>12</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13">
+      <c r="C98" s="25"/>
+      <c r="D98" s="25">
         <v>1</v>
       </c>
-      <c r="E98" s="18" t="s">
+      <c r="E98" s="26" t="s">
         <v>87</v>
       </c>
       <c r="F98" s="10" t="s">
@@ -4683,11 +4887,11 @@
       <c r="AB98" s="2"/>
     </row>
     <row r="99" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A99" s="13"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="18"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="26"/>
       <c r="F99" s="10" t="s">
         <v>56</v>
       </c>
@@ -4717,11 +4921,11 @@
       <c r="AB99" s="2"/>
     </row>
     <row r="100" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A100" s="13"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="18"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="26"/>
       <c r="F100" s="10" t="s">
         <v>138</v>
       </c>
@@ -4751,11 +4955,11 @@
       <c r="AB100" s="2"/>
     </row>
     <row r="101" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A101" s="13"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="18"/>
+      <c r="A101" s="25"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="26"/>
       <c r="F101" s="10" t="s">
         <v>110</v>
       </c>
@@ -4785,11 +4989,11 @@
       <c r="AB101" s="2"/>
     </row>
     <row r="102" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="13"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="18"/>
+      <c r="A102" s="25"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="26"/>
       <c r="F102" s="10" t="s">
         <v>112</v>
       </c>
@@ -4819,11 +5023,11 @@
       <c r="AB102" s="2"/>
     </row>
     <row r="103" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A103" s="13"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="18"/>
+      <c r="A103" s="25"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="26"/>
       <c r="F103" s="10" t="s">
         <v>124</v>
       </c>
@@ -4853,11 +5057,11 @@
       <c r="AB103" s="2"/>
     </row>
     <row r="104" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="13"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="18"/>
+      <c r="A104" s="25"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="26"/>
       <c r="F104" s="10" t="s">
         <v>115</v>
       </c>
@@ -4887,11 +5091,11 @@
       <c r="AB104" s="2"/>
     </row>
     <row r="105" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="13"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="18"/>
+      <c r="A105" s="25"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="26"/>
       <c r="F105" s="10" t="s">
         <v>131</v>
       </c>
@@ -4921,11 +5125,11 @@
       <c r="AB105" s="2"/>
     </row>
     <row r="106" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="13"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="18"/>
+      <c r="A106" s="25"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="26"/>
       <c r="F106" s="10" t="s">
         <v>133</v>
       </c>
@@ -4955,11 +5159,11 @@
       <c r="AB106" s="2"/>
     </row>
     <row r="107" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="13"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="18"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="26"/>
       <c r="F107" s="10" t="s">
         <v>135</v>
       </c>
@@ -4989,11 +5193,11 @@
       <c r="AB107" s="2"/>
     </row>
     <row r="108" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A108" s="13"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="18"/>
+      <c r="A108" s="25"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="26"/>
       <c r="F108" s="10" t="s">
         <v>137</v>
       </c>
@@ -5023,17 +5227,17 @@
       <c r="AB108" s="2"/>
     </row>
     <row r="109" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="15">
+      <c r="A109" s="23">
         <v>13</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15">
+      <c r="C109" s="23"/>
+      <c r="D109" s="23">
         <v>1</v>
       </c>
-      <c r="E109" s="14" t="s">
+      <c r="E109" s="22" t="s">
         <v>87</v>
       </c>
       <c r="F109" s="10" t="s">
@@ -5065,11 +5269,11 @@
       <c r="AB109" s="2"/>
     </row>
     <row r="110" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="15"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="14"/>
+      <c r="A110" s="23"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="22"/>
       <c r="F110" s="10" t="s">
         <v>142</v>
       </c>
@@ -5099,11 +5303,11 @@
       <c r="AB110" s="2"/>
     </row>
     <row r="111" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A111" s="15"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="14"/>
+      <c r="A111" s="23"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="22"/>
       <c r="F111" s="10" t="s">
         <v>151</v>
       </c>
@@ -5133,11 +5337,11 @@
       <c r="AB111" s="2"/>
     </row>
     <row r="112" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="15"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="14"/>
+      <c r="A112" s="23"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="22"/>
       <c r="F112" s="10" t="s">
         <v>145</v>
       </c>
@@ -5167,17 +5371,17 @@
       <c r="AB112" s="2"/>
     </row>
     <row r="113" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="15">
+      <c r="A113" s="23">
         <v>14</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15">
+      <c r="C113" s="23"/>
+      <c r="D113" s="23">
         <v>1</v>
       </c>
-      <c r="E113" s="14" t="s">
+      <c r="E113" s="22" t="s">
         <v>87</v>
       </c>
       <c r="F113" s="10" t="s">
@@ -5209,11 +5413,11 @@
       <c r="AB113" s="2"/>
     </row>
     <row r="114" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A114" s="15"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="14"/>
+      <c r="A114" s="23"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="22"/>
       <c r="F114" s="10" t="s">
         <v>154</v>
       </c>
@@ -5243,11 +5447,11 @@
       <c r="AB114" s="2"/>
     </row>
     <row r="115" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A115" s="15"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="14"/>
+      <c r="A115" s="23"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="22"/>
       <c r="F115" s="10" t="s">
         <v>156</v>
       </c>
@@ -5277,11 +5481,11 @@
       <c r="AB115" s="2"/>
     </row>
     <row r="116" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A116" s="15"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="14"/>
+      <c r="A116" s="23"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="22"/>
       <c r="F116" s="10" t="s">
         <v>110</v>
       </c>
@@ -5311,11 +5515,11 @@
       <c r="AB116" s="2"/>
     </row>
     <row r="117" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="15"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="14"/>
+      <c r="A117" s="23"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="22"/>
       <c r="F117" s="10" t="s">
         <v>159</v>
       </c>
@@ -5345,11 +5549,11 @@
       <c r="AB117" s="2"/>
     </row>
     <row r="118" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="15"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="14"/>
+      <c r="A118" s="23"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="22"/>
       <c r="F118" s="10" t="s">
         <v>161</v>
       </c>
@@ -5379,11 +5583,11 @@
       <c r="AB118" s="2"/>
     </row>
     <row r="119" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="15"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="14"/>
+      <c r="A119" s="23"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="22"/>
       <c r="F119" s="10" t="s">
         <v>163</v>
       </c>
@@ -5413,11 +5617,11 @@
       <c r="AB119" s="2"/>
     </row>
     <row r="120" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="15"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="14"/>
+      <c r="A120" s="23"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="22"/>
       <c r="F120" s="10" t="s">
         <v>165</v>
       </c>
@@ -5447,11 +5651,11 @@
       <c r="AB120" s="2"/>
     </row>
     <row r="121" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="15"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="14"/>
+      <c r="A121" s="23"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="22"/>
       <c r="F121" s="10" t="s">
         <v>133</v>
       </c>
@@ -5481,11 +5685,11 @@
       <c r="AB121" s="2"/>
     </row>
     <row r="122" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="15"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="14"/>
+      <c r="A122" s="23"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="22"/>
       <c r="F122" s="10" t="s">
         <v>135</v>
       </c>
@@ -5515,11 +5719,11 @@
       <c r="AB122" s="2"/>
     </row>
     <row r="123" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="15"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="14"/>
+      <c r="A123" s="23"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="22"/>
       <c r="F123" s="10" t="s">
         <v>169</v>
       </c>
@@ -5549,11 +5753,11 @@
       <c r="AB123" s="2"/>
     </row>
     <row r="124" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="15"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="14"/>
+      <c r="A124" s="23"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="22"/>
       <c r="F124" s="10" t="s">
         <v>171</v>
       </c>
@@ -5583,11 +5787,11 @@
       <c r="AB124" s="2"/>
     </row>
     <row r="125" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="15"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="14"/>
+      <c r="A125" s="23"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="22"/>
       <c r="F125" s="10" t="s">
         <v>173</v>
       </c>
@@ -5617,11 +5821,11 @@
       <c r="AB125" s="2"/>
     </row>
     <row r="126" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="15"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="14"/>
+      <c r="A126" s="23"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="22"/>
       <c r="F126" s="10" t="s">
         <v>175</v>
       </c>
@@ -5651,11 +5855,11 @@
       <c r="AB126" s="2"/>
     </row>
     <row r="127" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A127" s="15"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="14"/>
+      <c r="A127" s="23"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="22"/>
       <c r="F127" s="10" t="s">
         <v>176</v>
       </c>
@@ -5685,17 +5889,17 @@
       <c r="AB127" s="2"/>
     </row>
     <row r="128" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="15">
+      <c r="A128" s="23">
         <v>15</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15">
+      <c r="C128" s="23"/>
+      <c r="D128" s="23">
         <v>2</v>
       </c>
-      <c r="E128" s="14" t="s">
+      <c r="E128" s="22" t="s">
         <v>87</v>
       </c>
       <c r="F128" s="10" t="s">
@@ -5727,11 +5931,11 @@
       <c r="AB128" s="2"/>
     </row>
     <row r="129" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A129" s="15"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="14"/>
+      <c r="A129" s="23"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="23"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="22"/>
       <c r="F129" s="10" t="s">
         <v>56</v>
       </c>
@@ -5761,11 +5965,11 @@
       <c r="AB129" s="2"/>
     </row>
     <row r="130" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A130" s="15"/>
-      <c r="B130" s="14"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="14"/>
+      <c r="A130" s="23"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="22"/>
       <c r="F130" s="10" t="s">
         <v>114</v>
       </c>
@@ -5795,11 +5999,11 @@
       <c r="AB130" s="2"/>
     </row>
     <row r="131" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A131" s="15"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="14"/>
+      <c r="A131" s="23"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="23"/>
+      <c r="E131" s="22"/>
       <c r="F131" s="10" t="s">
         <v>110</v>
       </c>
@@ -5829,11 +6033,11 @@
       <c r="AB131" s="2"/>
     </row>
     <row r="132" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="15"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="14"/>
+      <c r="A132" s="23"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="22"/>
       <c r="F132" s="10" t="s">
         <v>112</v>
       </c>
@@ -5863,11 +6067,11 @@
       <c r="AB132" s="2"/>
     </row>
     <row r="133" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A133" s="15"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="14"/>
+      <c r="A133" s="23"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="23"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="22"/>
       <c r="F133" s="10" t="s">
         <v>124</v>
       </c>
@@ -5897,11 +6101,11 @@
       <c r="AB133" s="2"/>
     </row>
     <row r="134" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="15"/>
-      <c r="B134" s="14"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="14"/>
+      <c r="A134" s="23"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="22"/>
       <c r="F134" s="10" t="s">
         <v>115</v>
       </c>
@@ -5931,11 +6135,11 @@
       <c r="AB134" s="2"/>
     </row>
     <row r="135" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A135" s="15"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="14"/>
+      <c r="A135" s="23"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="22"/>
       <c r="F135" s="10" t="s">
         <v>165</v>
       </c>
@@ -5967,11 +6171,11 @@
       <c r="AB135" s="2"/>
     </row>
     <row r="136" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="15"/>
-      <c r="B136" s="14"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="14"/>
+      <c r="A136" s="23"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="22"/>
       <c r="F136" s="10" t="s">
         <v>148</v>
       </c>
@@ -6001,11 +6205,11 @@
       <c r="AB136" s="2"/>
     </row>
     <row r="137" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A137" s="15"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="14"/>
+      <c r="A137" s="23"/>
+      <c r="B137" s="22"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="22"/>
       <c r="F137" s="10" t="s">
         <v>181</v>
       </c>
@@ -6035,11 +6239,11 @@
       <c r="AB137" s="2"/>
     </row>
     <row r="138" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="15"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="14"/>
+      <c r="A138" s="23"/>
+      <c r="B138" s="22"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="22"/>
       <c r="F138" s="10" t="s">
         <v>182</v>
       </c>
@@ -6069,17 +6273,17 @@
       <c r="AB138" s="2"/>
     </row>
     <row r="139" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A139" s="15">
+      <c r="A139" s="23">
         <v>16</v>
       </c>
-      <c r="B139" s="17" t="s">
+      <c r="B139" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15">
+      <c r="C139" s="23"/>
+      <c r="D139" s="23">
         <v>2</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E139" s="27" t="s">
         <v>21</v>
       </c>
       <c r="F139" s="10" t="s">
@@ -6111,11 +6315,11 @@
       <c r="AB139" s="2"/>
     </row>
     <row r="140" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A140" s="15"/>
-      <c r="B140" s="17"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="16"/>
+      <c r="A140" s="23"/>
+      <c r="B140" s="28"/>
+      <c r="C140" s="23"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="27"/>
       <c r="F140" s="10" t="s">
         <v>200</v>
       </c>
@@ -6145,11 +6349,11 @@
       <c r="AB140" s="2"/>
     </row>
     <row r="141" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A141" s="15"/>
-      <c r="B141" s="17"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="16"/>
+      <c r="A141" s="23"/>
+      <c r="B141" s="28"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="27"/>
       <c r="F141" s="10" t="s">
         <v>202</v>
       </c>
@@ -6179,11 +6383,11 @@
       <c r="AB141" s="2"/>
     </row>
     <row r="142" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A142" s="15"/>
-      <c r="B142" s="17"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="16"/>
+      <c r="A142" s="23"/>
+      <c r="B142" s="28"/>
+      <c r="C142" s="23"/>
+      <c r="D142" s="23"/>
+      <c r="E142" s="27"/>
       <c r="F142" s="10" t="s">
         <v>204</v>
       </c>
@@ -6213,11 +6417,11 @@
       <c r="AB142" s="2"/>
     </row>
     <row r="143" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A143" s="15"/>
-      <c r="B143" s="17"/>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="16"/>
+      <c r="A143" s="23"/>
+      <c r="B143" s="28"/>
+      <c r="C143" s="23"/>
+      <c r="D143" s="23"/>
+      <c r="E143" s="27"/>
       <c r="F143" s="10" t="s">
         <v>206</v>
       </c>
@@ -6247,11 +6451,11 @@
       <c r="AB143" s="2"/>
     </row>
     <row r="144" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A144" s="15"/>
-      <c r="B144" s="17"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="16"/>
+      <c r="A144" s="23"/>
+      <c r="B144" s="28"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="27"/>
       <c r="F144" s="10" t="s">
         <v>208</v>
       </c>
@@ -6281,17 +6485,17 @@
       <c r="AB144" s="2"/>
     </row>
     <row r="145" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A145" s="15">
+      <c r="A145" s="23">
         <v>17</v>
       </c>
-      <c r="B145" s="17" t="s">
+      <c r="B145" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15">
+      <c r="C145" s="23"/>
+      <c r="D145" s="23">
         <v>2</v>
       </c>
-      <c r="E145" s="16" t="s">
+      <c r="E145" s="27" t="s">
         <v>21</v>
       </c>
       <c r="F145" s="10" t="s">
@@ -6323,11 +6527,11 @@
       <c r="AB145" s="2"/>
     </row>
     <row r="146" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A146" s="15"/>
-      <c r="B146" s="17"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="16"/>
+      <c r="A146" s="23"/>
+      <c r="B146" s="28"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="27"/>
       <c r="F146" s="10" t="s">
         <v>213</v>
       </c>
@@ -6357,11 +6561,11 @@
       <c r="AB146" s="2"/>
     </row>
     <row r="147" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A147" s="15"/>
-      <c r="B147" s="17"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="16"/>
+      <c r="A147" s="23"/>
+      <c r="B147" s="28"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="27"/>
       <c r="F147" s="10" t="s">
         <v>215</v>
       </c>
@@ -6391,11 +6595,11 @@
       <c r="AB147" s="2"/>
     </row>
     <row r="148" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A148" s="15"/>
-      <c r="B148" s="17"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="16"/>
+      <c r="A148" s="23"/>
+      <c r="B148" s="28"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="27"/>
       <c r="F148" s="10" t="s">
         <v>217</v>
       </c>
@@ -6425,11 +6629,11 @@
       <c r="AB148" s="2"/>
     </row>
     <row r="149" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A149" s="15"/>
-      <c r="B149" s="17"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="16"/>
+      <c r="A149" s="23"/>
+      <c r="B149" s="28"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="27"/>
       <c r="F149" s="10" t="s">
         <v>219</v>
       </c>
@@ -6459,11 +6663,11 @@
       <c r="AB149" s="2"/>
     </row>
     <row r="150" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A150" s="15"/>
-      <c r="B150" s="17"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="16"/>
+      <c r="A150" s="23"/>
+      <c r="B150" s="28"/>
+      <c r="C150" s="23"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="27"/>
       <c r="F150" s="10" t="s">
         <v>208</v>
       </c>
@@ -6493,11 +6697,11 @@
       <c r="AB150" s="2"/>
     </row>
     <row r="151" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A151" s="15"/>
-      <c r="B151" s="17"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="16"/>
+      <c r="A151" s="23"/>
+      <c r="B151" s="28"/>
+      <c r="C151" s="23"/>
+      <c r="D151" s="23"/>
+      <c r="E151" s="27"/>
       <c r="F151" s="10" t="s">
         <v>221</v>
       </c>
@@ -6526,7 +6730,26 @@
       <c r="AA151" s="2"/>
       <c r="AB151" s="2"/>
     </row>
-    <row r="152" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A152" s="30">
+        <v>18</v>
+      </c>
+      <c r="B152" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="C152" s="23"/>
+      <c r="D152" s="23">
+        <v>1</v>
+      </c>
+      <c r="E152" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
@@ -6550,6 +6773,17 @@
       <c r="AB152" s="2"/>
     </row>
     <row r="153" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="31"/>
+      <c r="B153" s="22"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="22"/>
+      <c r="F153" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G153" s="29" t="s">
+        <v>231</v>
+      </c>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
@@ -6572,7 +6806,18 @@
       <c r="AA153" s="2"/>
       <c r="AB153" s="2"/>
     </row>
-    <row r="154" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A154" s="31"/>
+      <c r="B154" s="22"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="22"/>
+      <c r="F154" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G154" s="10" t="s">
+        <v>233</v>
+      </c>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -6595,7 +6840,18 @@
       <c r="AA154" s="2"/>
       <c r="AB154" s="2"/>
     </row>
-    <row r="155" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A155" s="31"/>
+      <c r="B155" s="22"/>
+      <c r="C155" s="23"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="22"/>
+      <c r="F155" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>235</v>
+      </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
@@ -6618,7 +6874,18 @@
       <c r="AA155" s="2"/>
       <c r="AB155" s="2"/>
     </row>
-    <row r="156" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A156" s="31"/>
+      <c r="B156" s="22"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="22"/>
+      <c r="F156" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G156" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
@@ -6641,7 +6908,18 @@
       <c r="AA156" s="2"/>
       <c r="AB156" s="2"/>
     </row>
-    <row r="157" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A157" s="31"/>
+      <c r="B157" s="22"/>
+      <c r="C157" s="23"/>
+      <c r="D157" s="23"/>
+      <c r="E157" s="22"/>
+      <c r="F157" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G157" s="10" t="s">
+        <v>239</v>
+      </c>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
@@ -6664,7 +6942,18 @@
       <c r="AA157" s="2"/>
       <c r="AB157" s="2"/>
     </row>
-    <row r="158" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A158" s="31"/>
+      <c r="B158" s="22"/>
+      <c r="C158" s="23"/>
+      <c r="D158" s="23"/>
+      <c r="E158" s="22"/>
+      <c r="F158" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G158" s="10" t="s">
+        <v>241</v>
+      </c>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
@@ -6687,7 +6976,18 @@
       <c r="AA158" s="2"/>
       <c r="AB158" s="2"/>
     </row>
-    <row r="159" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A159" s="31"/>
+      <c r="B159" s="22"/>
+      <c r="C159" s="23"/>
+      <c r="D159" s="23"/>
+      <c r="E159" s="22"/>
+      <c r="F159" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="G159" s="10" t="s">
+        <v>280</v>
+      </c>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
@@ -6710,7 +7010,18 @@
       <c r="AA159" s="2"/>
       <c r="AB159" s="2"/>
     </row>
-    <row r="160" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A160" s="31"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G160" s="10" t="s">
+        <v>281</v>
+      </c>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
@@ -6732,7 +7043,14 @@
       <c r="AA160" s="2"/>
       <c r="AB160" s="2"/>
     </row>
-    <row r="161" spans="8:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A161" s="31"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -6755,7 +7073,26 @@
       <c r="AA161" s="2"/>
       <c r="AB161" s="2"/>
     </row>
-    <row r="162" spans="8:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="28">
+        <v>19</v>
+      </c>
+      <c r="B162" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="C162" s="23"/>
+      <c r="D162" s="23">
+        <v>2</v>
+      </c>
+      <c r="E162" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F162" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="G162" s="10" t="s">
+        <v>245</v>
+      </c>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
@@ -6778,7 +7115,18 @@
       <c r="AA162" s="2"/>
       <c r="AB162" s="2"/>
     </row>
-    <row r="163" spans="8:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A163" s="28"/>
+      <c r="B163" s="22"/>
+      <c r="C163" s="23"/>
+      <c r="D163" s="23"/>
+      <c r="E163" s="22"/>
+      <c r="F163" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="G163" s="10" t="s">
+        <v>246</v>
+      </c>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
@@ -6801,7 +7149,18 @@
       <c r="AA163" s="2"/>
       <c r="AB163" s="2"/>
     </row>
-    <row r="164" spans="8:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="28"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" s="10" t="s">
+        <v>247</v>
+      </c>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
@@ -6824,7 +7183,18 @@
       <c r="AA164" s="2"/>
       <c r="AB164" s="2"/>
     </row>
-    <row r="165" spans="8:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A165" s="28"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="23"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="G165" s="10" t="s">
+        <v>250</v>
+      </c>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
@@ -6847,7 +7217,18 @@
       <c r="AA165" s="2"/>
       <c r="AB165" s="2"/>
     </row>
-    <row r="166" spans="8:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A166" s="28"/>
+      <c r="B166" s="22"/>
+      <c r="C166" s="23"/>
+      <c r="D166" s="23"/>
+      <c r="E166" s="22"/>
+      <c r="F166" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="G166" s="10" t="s">
+        <v>251</v>
+      </c>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
@@ -6870,7 +7251,18 @@
       <c r="AA166" s="2"/>
       <c r="AB166" s="2"/>
     </row>
-    <row r="167" spans="8:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A167" s="28"/>
+      <c r="B167" s="22"/>
+      <c r="C167" s="23"/>
+      <c r="D167" s="23"/>
+      <c r="E167" s="22"/>
+      <c r="F167" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G167" s="10" t="s">
+        <v>252</v>
+      </c>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
@@ -6893,7 +7285,18 @@
       <c r="AA167" s="2"/>
       <c r="AB167" s="2"/>
     </row>
-    <row r="168" spans="8:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A168" s="28"/>
+      <c r="B168" s="22"/>
+      <c r="C168" s="23"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="22"/>
+      <c r="F168" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="G168" s="10" t="s">
+        <v>256</v>
+      </c>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
@@ -6916,7 +7319,18 @@
       <c r="AA168" s="2"/>
       <c r="AB168" s="2"/>
     </row>
-    <row r="169" spans="8:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A169" s="28"/>
+      <c r="B169" s="22"/>
+      <c r="C169" s="23"/>
+      <c r="D169" s="23"/>
+      <c r="E169" s="22"/>
+      <c r="F169" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="G169" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
@@ -6938,7 +7352,18 @@
       <c r="AA169" s="2"/>
       <c r="AB169" s="2"/>
     </row>
-    <row r="170" spans="8:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A170" s="28"/>
+      <c r="B170" s="22"/>
+      <c r="C170" s="23"/>
+      <c r="D170" s="23"/>
+      <c r="E170" s="22"/>
+      <c r="F170" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="G170" s="10" t="s">
+        <v>259</v>
+      </c>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
@@ -6961,7 +7386,18 @@
       <c r="AA170" s="2"/>
       <c r="AB170" s="2"/>
     </row>
-    <row r="171" spans="8:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A171" s="28"/>
+      <c r="B171" s="22"/>
+      <c r="C171" s="23"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G171" s="10" t="s">
+        <v>263</v>
+      </c>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
@@ -6984,7 +7420,18 @@
       <c r="AA171" s="2"/>
       <c r="AB171" s="2"/>
     </row>
-    <row r="172" spans="8:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="28"/>
+      <c r="B172" s="22"/>
+      <c r="C172" s="23"/>
+      <c r="D172" s="23"/>
+      <c r="E172" s="22"/>
+      <c r="F172" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="G172" s="10" t="s">
+        <v>262</v>
+      </c>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
@@ -7007,7 +7454,18 @@
       <c r="AA172" s="2"/>
       <c r="AB172" s="2"/>
     </row>
-    <row r="173" spans="8:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A173" s="28"/>
+      <c r="B173" s="22"/>
+      <c r="C173" s="23"/>
+      <c r="D173" s="23"/>
+      <c r="E173" s="22"/>
+      <c r="F173" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="G173" s="10" t="s">
+        <v>265</v>
+      </c>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
@@ -7030,7 +7488,18 @@
       <c r="AA173" s="2"/>
       <c r="AB173" s="2"/>
     </row>
-    <row r="174" spans="8:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A174" s="28"/>
+      <c r="B174" s="22"/>
+      <c r="C174" s="23"/>
+      <c r="D174" s="23"/>
+      <c r="E174" s="22"/>
+      <c r="F174" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="G174" s="10" t="s">
+        <v>269</v>
+      </c>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
@@ -7053,7 +7522,18 @@
       <c r="AA174" s="2"/>
       <c r="AB174" s="2"/>
     </row>
-    <row r="175" spans="8:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A175" s="28"/>
+      <c r="B175" s="22"/>
+      <c r="C175" s="23"/>
+      <c r="D175" s="23"/>
+      <c r="E175" s="22"/>
+      <c r="F175" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="G175" s="10" t="s">
+        <v>270</v>
+      </c>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
@@ -7076,7 +7556,18 @@
       <c r="AA175" s="2"/>
       <c r="AB175" s="2"/>
     </row>
-    <row r="176" spans="8:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A176" s="28"/>
+      <c r="B176" s="22"/>
+      <c r="C176" s="23"/>
+      <c r="D176" s="23"/>
+      <c r="E176" s="22"/>
+      <c r="F176" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="G176" s="10" t="s">
+        <v>271</v>
+      </c>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
@@ -7099,7 +7590,18 @@
       <c r="AA176" s="2"/>
       <c r="AB176" s="2"/>
     </row>
-    <row r="177" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A177" s="28"/>
+      <c r="B177" s="22"/>
+      <c r="C177" s="23"/>
+      <c r="D177" s="23"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G177" s="10" t="s">
+        <v>273</v>
+      </c>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
@@ -7123,6 +7625,17 @@
       <c r="AB177" s="2"/>
     </row>
     <row r="178" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="28"/>
+      <c r="B178" s="22"/>
+      <c r="C178" s="23"/>
+      <c r="D178" s="23"/>
+      <c r="E178" s="22"/>
+      <c r="F178" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="G178" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
@@ -7145,7 +7658,18 @@
       <c r="AA178" s="2"/>
       <c r="AB178" s="2"/>
     </row>
-    <row r="179" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A179" s="28"/>
+      <c r="B179" s="22"/>
+      <c r="C179" s="23"/>
+      <c r="D179" s="23"/>
+      <c r="E179" s="22"/>
+      <c r="F179" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="G179" s="10" t="s">
+        <v>277</v>
+      </c>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
@@ -27654,24 +28178,69 @@
       <c r="AB863" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="E36:E50"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="D77:D86"/>
-    <mergeCell ref="C77:C86"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B36:B50"/>
-    <mergeCell ref="A36:A50"/>
-    <mergeCell ref="C36:C50"/>
-    <mergeCell ref="D36:D50"/>
-    <mergeCell ref="B31:B35"/>
+  <mergeCells count="95">
+    <mergeCell ref="A152:A161"/>
+    <mergeCell ref="E162:E179"/>
+    <mergeCell ref="D162:D179"/>
+    <mergeCell ref="C162:C179"/>
+    <mergeCell ref="B162:B179"/>
+    <mergeCell ref="A162:A179"/>
+    <mergeCell ref="B152:B161"/>
+    <mergeCell ref="C152:C161"/>
+    <mergeCell ref="D152:D161"/>
+    <mergeCell ref="E152:E161"/>
+    <mergeCell ref="A98:A108"/>
+    <mergeCell ref="E109:E112"/>
+    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A145:A151"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="E145:E151"/>
+    <mergeCell ref="D145:D151"/>
+    <mergeCell ref="C145:C151"/>
+    <mergeCell ref="B145:B151"/>
+    <mergeCell ref="E139:E144"/>
+    <mergeCell ref="D139:D144"/>
+    <mergeCell ref="C139:C144"/>
+    <mergeCell ref="B139:B144"/>
+    <mergeCell ref="A139:A144"/>
+    <mergeCell ref="A128:A138"/>
+    <mergeCell ref="E17:E24"/>
+    <mergeCell ref="D17:D24"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="E55:E76"/>
+    <mergeCell ref="D55:D76"/>
+    <mergeCell ref="E128:E138"/>
+    <mergeCell ref="D128:D138"/>
+    <mergeCell ref="C128:C138"/>
+    <mergeCell ref="B128:B138"/>
+    <mergeCell ref="E113:E127"/>
+    <mergeCell ref="D113:D127"/>
+    <mergeCell ref="C113:C127"/>
+    <mergeCell ref="B113:B127"/>
     <mergeCell ref="A113:A127"/>
     <mergeCell ref="C55:C76"/>
     <mergeCell ref="B55:B76"/>
@@ -27688,58 +28257,23 @@
     <mergeCell ref="C98:C108"/>
     <mergeCell ref="B98:B108"/>
     <mergeCell ref="A77:A86"/>
-    <mergeCell ref="C128:C138"/>
-    <mergeCell ref="B128:B138"/>
-    <mergeCell ref="E113:E127"/>
-    <mergeCell ref="D113:D127"/>
-    <mergeCell ref="C113:C127"/>
-    <mergeCell ref="B113:B127"/>
-    <mergeCell ref="A139:A144"/>
-    <mergeCell ref="A128:A138"/>
-    <mergeCell ref="E17:E24"/>
-    <mergeCell ref="D17:D24"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="E55:E76"/>
-    <mergeCell ref="D55:D76"/>
-    <mergeCell ref="E128:E138"/>
-    <mergeCell ref="D128:D138"/>
-    <mergeCell ref="E145:E151"/>
-    <mergeCell ref="D145:D151"/>
-    <mergeCell ref="C145:C151"/>
-    <mergeCell ref="B145:B151"/>
-    <mergeCell ref="E139:E144"/>
-    <mergeCell ref="D139:D144"/>
-    <mergeCell ref="C139:C144"/>
-    <mergeCell ref="B139:B144"/>
-    <mergeCell ref="A145:A151"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="E25:E30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A98:A108"/>
-    <mergeCell ref="E109:E112"/>
-    <mergeCell ref="D109:D112"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B36:B50"/>
+    <mergeCell ref="A36:A50"/>
+    <mergeCell ref="C36:C50"/>
+    <mergeCell ref="D36:D50"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="E36:E50"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="D77:D86"/>
+    <mergeCell ref="C77:C86"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamzi\DIPLOM\fmh_android_15_03_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53C5877-87D5-4330-9FB3-F7491EC5E513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBB89E5-216B-4F8C-AE97-908179453087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="264">
   <si>
     <t>ID</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>4 Нажать кнопку ALL NEWS</t>
-  </si>
-  <si>
-    <t>2 Под News отображается список из трех новостей</t>
   </si>
   <si>
     <t>4 Отображается список новостей и кнопки Сортировка, Фильтр, Редактирование</t>
@@ -401,9 +398,6 @@
   </si>
   <si>
     <t>10 Отображается страница News и добавленная новость первая в списке</t>
-  </si>
-  <si>
-    <t>Добавление новости на странице control panelс отложенным временем публикации</t>
   </si>
   <si>
     <t>10 Отображается страница News, добавленная новость отсутствует</t>
@@ -724,33 +718,6 @@
     <t>3 В полях Category, Title, Publication date, Time, Description отображается красный восклицательный знак в красном круге</t>
   </si>
   <si>
-    <t>4 Поля Title, Description заполнить пробелами</t>
-  </si>
-  <si>
-    <t>4  Поля Category, Publication date, Time, Description пустые. Поля Title и Description заполнены пробелами</t>
-  </si>
-  <si>
-    <t>5 Нажать кнопку Save</t>
-  </si>
-  <si>
-    <t>5 В полях Category, Title, Publication date, Time, Description отображается красный восклицательный знак в красном круге</t>
-  </si>
-  <si>
-    <t>6 Поля Title, Description заполнить спецсимволами !"№;%:?*</t>
-  </si>
-  <si>
-    <t>6 Поля Category, Publication date, Time, Description пустые. Поля Title и Description заполнены спецсимволами !"№;%:?*</t>
-  </si>
-  <si>
-    <t>7 Нажать кнопку Save</t>
-  </si>
-  <si>
-    <t>7 В полях Category, Title, Publication date, Time, Description отображается красный восклицательный знак в красном круге</t>
-  </si>
-  <si>
-    <t>Не успешная авторизация с невалидными данными</t>
-  </si>
-  <si>
     <t>1 Заполнить поле для ввода Login пробелами</t>
   </si>
   <si>
@@ -766,106 +733,85 @@
     <t>3 В нижней части экрана отображается сообщение "Login and password cannot be empty"</t>
   </si>
   <si>
-    <t>4 Заполнить поле для ввода Login в верхнем регистре LOGIN2</t>
+    <t>Добавление новости на странице control panel с пустыми полями</t>
   </si>
   <si>
-    <t>5 Заполнить поле для ввода Password в верхнем регистре PASSWORD2</t>
+    <t>2 Поля Title, Description заполнить пробелами</t>
   </si>
   <si>
-    <t>4 В поле для ввода Login отображается значение LOGIN2</t>
+    <t>2  Поля Category, Publication date, Time, Description пустые. Поля Title и Description заполнены пробелами</t>
   </si>
   <si>
-    <t>5 В поле для ввода Password отображается значение PASSWORD2</t>
+    <t>Добавление новости на странице control panel с полями, заполненными пробелами</t>
   </si>
   <si>
-    <t>6 В нижней части экрана отображается сообщение "Somethig went wrong. Try again later."</t>
+    <t>2 Поля Title, Description заполнить одним символом</t>
   </si>
   <si>
-    <t>6 Нажать кнопку “sign in”</t>
+    <t>2 Поля Category, Publication date, Time, Description пустые. Поля Title и Description заполнены одним символом</t>
   </si>
   <si>
-    <t>7 Заполнить поле для ввода Login спецсимволами !"№;%:?</t>
+    <t>Добавление новости на странице control panel с полями, заполненными одним символом</t>
   </si>
   <si>
-    <t>8 Заполнить поле для ввода Password спецсимволами !"№;%:?</t>
+    <t>1 Заполнить поле для ввода Login в верхнем регистре LOGIN2</t>
   </si>
   <si>
-    <t>7 В поле для ввода Login отображаются спецсимволы !"№;%:?</t>
+    <t>2 Заполнить поле для ввода Password в верхнем регистре PASSWORD2</t>
   </si>
   <si>
-    <t>8 В поле для ввода Password отображаются спецсимволы !"№;%:?</t>
+    <t>1 В поле для ввода Login отображается значение LOGIN2</t>
   </si>
   <si>
-    <t>9 Нажать кнопку “sign in”</t>
+    <t>2 В поле для ввода Password отображается значение PASSWORD2</t>
   </si>
   <si>
-    <t>9 В нижней части экрана отображается сообщение "Somethig went wrong. Try again later."</t>
+    <t>1 Заполнить поле для ввода Login одним символом 5</t>
   </si>
   <si>
-    <t>10 Заполнить поле для ввода Login одним символом 5</t>
+    <t>2 Заполнить поле для ввода Password одним символом 5</t>
   </si>
   <si>
-    <t>11 Заполнить поле для ввода Password одним символом 5</t>
+    <t>1 В поле для ввода Login отображается один символ 5</t>
   </si>
   <si>
-    <t>11 В поле для ввода Password отображается один символ 5</t>
+    <t>2 В поле для ввода Password отображается один символ 5</t>
   </si>
   <si>
-    <t>10 В поле для ввода Login отображается один символ 5</t>
+    <t>1 Заполнить поле для ввода Login значением на кириллице Логин</t>
   </si>
   <si>
-    <t>12 Нажать кнопку “sign in”</t>
+    <t>2 Заполнить поле для ввода Password значением на кириллице Пароль</t>
   </si>
   <si>
-    <t>12 В нижней части экрана отображается сообщение "Somethig went wrong. Try again later."</t>
+    <t>1 В поле для ввода Login отображается значение Логин</t>
   </si>
   <si>
-    <t>13 Заполнить поле для ввода Login значением из 500 символов</t>
+    <t>2 В поле для ввода Password отображается значение Пароль</t>
   </si>
   <si>
-    <t>14 Заполнить поле для ввода Password значением из 500 символов</t>
+    <t>Не успешная авторизация с полями, заполненными пробелами</t>
   </si>
   <si>
-    <t>15 Нажать кнопку “sign in”</t>
+    <t>Не успешная авторизация с полями, заполненными в верхнем регистре</t>
   </si>
   <si>
-    <t>13 В поле для ввода Login отображается значение из 500 символов</t>
+    <t>Не успешная авторизация с полями, заполненными одним символом</t>
   </si>
   <si>
-    <t>14 В поле для ввода Password отображается значение из 500 символов</t>
+    <t>Не успешная авторизация с полями, заполненными на кириллице</t>
   </si>
   <si>
-    <t>15 В нижней части экрана отображается сообщение "Somethig went wrong. Try again later."</t>
+    <t>2 Под News отображается All news</t>
   </si>
   <si>
-    <t>16 Заполнить поле для ввода Login значением на кириллице Логин</t>
+    <t>2 В поле Category отображается категория Объявление</t>
   </si>
   <si>
-    <t>16 В поле для ввода Login отображается значение Логин</t>
+    <t>Добавление новости на странице control panel с отложенным временем публикации</t>
   </si>
   <si>
-    <t>17 Заполнить поле для ввода Password значением на кириллице Пароль</t>
-  </si>
-  <si>
-    <t>17 В поле для ввода Password отображается значение Пароль</t>
-  </si>
-  <si>
-    <t>18 Нажать кнопку “sign in”</t>
-  </si>
-  <si>
-    <t>18 В нижней части экрана отображается сообщение "Somethig went wrong. Try again later."</t>
-  </si>
-  <si>
-    <t>Ошибка добавления новости на странице control panel</t>
-  </si>
-  <si>
-    <t>8 Поля Title, Description заполнить одним символом</t>
-  </si>
-  <si>
-    <t>8 Поля Category, Publication date, Time, Description пустые. Поля Title и Description заполнены одним символом</t>
-  </si>
-  <si>
-    <t>9 В полях Category, Title, Publication date, Time, Description отображается красный восклицательный знак в красном круге</t>
+    <t>3 В поле Title отображено значание New Other</t>
   </si>
 </sst>
 </file>
@@ -893,7 +839,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -930,8 +876,26 @@
         <bgColor rgb="FFD9D2E9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1009,17 +973,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1041,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1077,23 +1030,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1104,11 +1069,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1123,22 +1112,19 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1459,8 +1445,8 @@
   </sheetPr>
   <dimension ref="A1:AB863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="F161" sqref="F161"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1519,17 +1505,17 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="16">
+      <c r="C2" s="23"/>
+      <c r="D2" s="33">
         <v>1</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="27" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -1561,11 +1547,11 @@
       <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
@@ -1595,11 +1581,11 @@
       <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="15"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
@@ -1839,17 +1825,17 @@
       <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23">
+      <c r="A12" s="26">
         <v>2</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26">
         <v>2</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="30" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -1881,11 +1867,11 @@
       <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="22"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="10" t="s">
         <v>17</v>
       </c>
@@ -1915,11 +1901,11 @@
       <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="22"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="10" t="s">
         <v>12</v>
       </c>
@@ -1949,17 +1935,17 @@
       <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23">
+      <c r="A15" s="26">
         <v>3</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26">
         <v>1</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="30" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -1991,11 +1977,11 @@
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="22"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="10" t="s">
         <v>24</v>
       </c>
@@ -2025,24 +2011,24 @@
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="23">
+      <c r="A17" s="26">
         <v>4</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26">
         <v>1</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="30" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2067,11 +2053,11 @@
       <c r="AB17" s="2"/>
     </row>
     <row r="18" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="22"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="10" t="s">
         <v>32</v>
       </c>
@@ -2101,11 +2087,11 @@
       <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="22"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="10" t="s">
         <v>30</v>
       </c>
@@ -2135,16 +2121,16 @@
       <c r="AB19" s="2"/>
     </row>
     <row r="20" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="22"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -2169,16 +2155,16 @@
       <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="22"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -2203,19 +2189,19 @@
       <c r="AB21" s="2"/>
     </row>
     <row r="22" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="22"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2239,16 +2225,16 @@
       <c r="AB22" s="2"/>
     </row>
     <row r="23" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="22"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2273,16 +2259,16 @@
       <c r="AB23" s="2"/>
     </row>
     <row r="24" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="22"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -2307,17 +2293,17 @@
       <c r="AB24" s="2"/>
     </row>
     <row r="25" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="23">
+      <c r="A25" s="26">
         <v>5</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23">
+      <c r="B25" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26">
         <v>1</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="30" t="s">
         <v>21</v>
       </c>
       <c r="F25" s="10" t="s">
@@ -2349,16 +2335,16 @@
       <c r="AB25" s="2"/>
     </row>
     <row r="26" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="23"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="22"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -2383,11 +2369,11 @@
       <c r="AB26" s="2"/>
     </row>
     <row r="27" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="23"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="22"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="10" t="s">
         <v>37</v>
       </c>
@@ -2417,16 +2403,16 @@
       <c r="AB27" s="2"/>
     </row>
     <row r="28" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="23"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="22"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -2451,16 +2437,16 @@
       <c r="AB28" s="2"/>
     </row>
     <row r="29" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="23"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="22"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -2485,16 +2471,16 @@
       <c r="AB29" s="2"/>
     </row>
     <row r="30" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="23"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="22"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2519,17 +2505,17 @@
       <c r="AB30" s="2"/>
     </row>
     <row r="31" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="23">
+      <c r="A31" s="26">
         <v>6</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23">
+      <c r="B31" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26">
         <v>1</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="30" t="s">
         <v>21</v>
       </c>
       <c r="F31" s="10" t="s">
@@ -2561,16 +2547,16 @@
       <c r="AB31" s="2"/>
     </row>
     <row r="32" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -2595,11 +2581,11 @@
       <c r="AB32" s="2"/>
     </row>
     <row r="33" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
       <c r="F33" s="10" t="s">
         <v>37</v>
       </c>
@@ -2629,16 +2615,16 @@
       <c r="AB33" s="2"/>
     </row>
     <row r="34" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -2663,16 +2649,16 @@
       <c r="AB34" s="2"/>
     </row>
     <row r="35" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
       <c r="F35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -2697,24 +2683,24 @@
       <c r="AB35" s="2"/>
     </row>
     <row r="36" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A36" s="23">
+      <c r="A36" s="26">
         <v>7</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26">
+        <v>2</v>
+      </c>
+      <c r="E36" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23">
-        <v>2</v>
-      </c>
-      <c r="E36" s="22" t="s">
+      <c r="F36" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="G36" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -2739,16 +2725,16 @@
       <c r="AB36" s="2"/>
     </row>
     <row r="37" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="23"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="22"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="30"/>
       <c r="F37" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -2773,16 +2759,16 @@
       <c r="AB37" s="2"/>
     </row>
     <row r="38" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="23"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="22"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="30"/>
       <c r="F38" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -2807,16 +2793,16 @@
       <c r="AB38" s="2"/>
     </row>
     <row r="39" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A39" s="23"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="22"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="30"/>
       <c r="F39" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -2841,16 +2827,16 @@
       <c r="AB39" s="2"/>
     </row>
     <row r="40" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="23"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="22"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="30"/>
       <c r="F40" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -2875,16 +2861,16 @@
       <c r="AB40" s="2"/>
     </row>
     <row r="41" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A41" s="23"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="22"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="30"/>
       <c r="F41" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -2909,16 +2895,16 @@
       <c r="AB41" s="2"/>
     </row>
     <row r="42" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A42" s="23"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="22"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="30"/>
       <c r="F42" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -2943,16 +2929,16 @@
       <c r="AB42" s="2"/>
     </row>
     <row r="43" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="23"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="22"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="30"/>
       <c r="F43" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -2977,16 +2963,16 @@
       <c r="AB43" s="2"/>
     </row>
     <row r="44" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="23"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="22"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="30"/>
       <c r="F44" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -3011,16 +2997,16 @@
       <c r="AB44" s="2"/>
     </row>
     <row r="45" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="23"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="22"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="30"/>
       <c r="F45" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -3045,16 +3031,16 @@
       <c r="AB45" s="2"/>
     </row>
     <row r="46" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A46" s="23"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="22"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="30"/>
       <c r="F46" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -3079,16 +3065,16 @@
       <c r="AB46" s="2"/>
     </row>
     <row r="47" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="23"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="22"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="30"/>
       <c r="F47" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>78</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -3113,16 +3099,16 @@
       <c r="AB47" s="2"/>
     </row>
     <row r="48" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="23"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="22"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="30"/>
       <c r="F48" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -3147,16 +3133,16 @@
       <c r="AB48" s="2"/>
     </row>
     <row r="49" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A49" s="23"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="22"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="30"/>
       <c r="F49" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -3181,16 +3167,16 @@
       <c r="AB49" s="2"/>
     </row>
     <row r="50" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="23"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="22"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="30"/>
       <c r="F50" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -3215,24 +3201,24 @@
       <c r="AB50" s="2"/>
     </row>
     <row r="51" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="25">
+      <c r="A51" s="37">
         <v>8</v>
       </c>
-      <c r="B51" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25">
+      <c r="B51" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37">
         <v>1</v>
       </c>
-      <c r="E51" s="26" t="s">
-        <v>54</v>
+      <c r="E51" s="38" t="s">
+        <v>53</v>
       </c>
       <c r="F51" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -3257,16 +3243,16 @@
       <c r="AB51" s="2"/>
     </row>
     <row r="52" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="26"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
       <c r="F52" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -3291,16 +3277,16 @@
       <c r="AB52" s="2"/>
     </row>
     <row r="53" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="26"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
       <c r="F53" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -3325,16 +3311,16 @@
       <c r="AB53" s="2"/>
     </row>
     <row r="54" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="26"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
       <c r="F54" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -3359,24 +3345,24 @@
       <c r="AB54" s="2"/>
     </row>
     <row r="55" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="25">
+      <c r="A55" s="37">
         <v>9</v>
       </c>
-      <c r="B55" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25">
+      <c r="B55" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37">
         <v>2</v>
       </c>
-      <c r="E55" s="26" t="s">
-        <v>87</v>
+      <c r="E55" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -3401,16 +3387,16 @@
       <c r="AB55" s="2"/>
     </row>
     <row r="56" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="26"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
       <c r="F56" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -3435,16 +3421,16 @@
       <c r="AB56" s="2"/>
     </row>
     <row r="57" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="26"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
       <c r="F57" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -3469,16 +3455,16 @@
       <c r="AB57" s="2"/>
     </row>
     <row r="58" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="26"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
       <c r="F58" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -3503,16 +3489,16 @@
       <c r="AB58" s="2"/>
     </row>
     <row r="59" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="26"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
       <c r="F59" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -3537,16 +3523,16 @@
       <c r="AB59" s="2"/>
     </row>
     <row r="60" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="26"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
       <c r="F60" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -3571,16 +3557,16 @@
       <c r="AB60" s="2"/>
     </row>
     <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="26"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="38"/>
       <c r="F61" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -3605,16 +3591,16 @@
       <c r="AB61" s="2"/>
     </row>
     <row r="62" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="25"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="26"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="38"/>
       <c r="F62" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G62" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -3639,16 +3625,16 @@
       <c r="AB62" s="2"/>
     </row>
     <row r="63" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="25"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="26"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="38"/>
       <c r="F63" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G63" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -3673,16 +3659,16 @@
       <c r="AB63" s="2"/>
     </row>
     <row r="64" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="25"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="26"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="38"/>
       <c r="F64" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -3707,16 +3693,16 @@
       <c r="AB64" s="2"/>
     </row>
     <row r="65" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A65" s="25"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="26"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="38"/>
       <c r="F65" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G65" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -3741,16 +3727,16 @@
       <c r="AB65" s="2"/>
     </row>
     <row r="66" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="25"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="26"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="38"/>
       <c r="F66" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G66" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>78</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -3775,16 +3761,16 @@
       <c r="AB66" s="2"/>
     </row>
     <row r="67" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="25"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="26"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="38"/>
       <c r="F67" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G67" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -3809,16 +3795,16 @@
       <c r="AB67" s="2"/>
     </row>
     <row r="68" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A68" s="25"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="26"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="38"/>
       <c r="F68" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G68" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -3843,16 +3829,16 @@
       <c r="AB68" s="2"/>
     </row>
     <row r="69" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="25"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="26"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="38"/>
       <c r="F69" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -3877,16 +3863,16 @@
       <c r="AB69" s="2"/>
     </row>
     <row r="70" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A70" s="25"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="26"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="38"/>
       <c r="F70" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G70" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -3911,16 +3897,16 @@
       <c r="AB70" s="2"/>
     </row>
     <row r="71" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A71" s="25"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="26"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="38"/>
       <c r="F71" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -3945,16 +3931,16 @@
       <c r="AB71" s="2"/>
     </row>
     <row r="72" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A72" s="25"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="26"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="38"/>
       <c r="F72" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G72" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>97</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -3979,16 +3965,16 @@
       <c r="AB72" s="2"/>
     </row>
     <row r="73" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A73" s="25"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="26"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="38"/>
       <c r="F73" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G73" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -4013,16 +3999,16 @@
       <c r="AB73" s="2"/>
     </row>
     <row r="74" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A74" s="25"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="26"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="38"/>
       <c r="F74" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G74" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -4047,16 +4033,16 @@
       <c r="AB74" s="2"/>
     </row>
     <row r="75" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A75" s="25"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="26"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="38"/>
       <c r="F75" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G75" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -4081,16 +4067,16 @@
       <c r="AB75" s="2"/>
     </row>
     <row r="76" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="25"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="26"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="38"/>
       <c r="F76" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G76" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -4115,24 +4101,24 @@
       <c r="AB76" s="2"/>
     </row>
     <row r="77" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="23">
+      <c r="A77" s="26">
         <v>10</v>
       </c>
-      <c r="B77" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23">
+      <c r="B77" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26">
         <v>1</v>
       </c>
-      <c r="E77" s="22" t="s">
-        <v>87</v>
+      <c r="E77" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="F77" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G77" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -4157,16 +4143,16 @@
       <c r="AB77" s="2"/>
     </row>
     <row r="78" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A78" s="23"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="22"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="30"/>
       <c r="F78" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="G78" s="41" t="s">
+        <v>261</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -4191,16 +4177,16 @@
       <c r="AB78" s="2"/>
     </row>
     <row r="79" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A79" s="23"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="22"/>
+      <c r="A79" s="26"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="30"/>
       <c r="F79" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -4225,16 +4211,16 @@
       <c r="AB79" s="2"/>
     </row>
     <row r="80" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="23"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="22"/>
+      <c r="A80" s="26"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="30"/>
       <c r="F80" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G80" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -4259,16 +4245,16 @@
       <c r="AB80" s="2"/>
     </row>
     <row r="81" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="23"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="22"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="30"/>
       <c r="F81" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G81" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -4293,16 +4279,16 @@
       <c r="AB81" s="2"/>
     </row>
     <row r="82" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A82" s="23"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="22"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="30"/>
       <c r="F82" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G82" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -4327,16 +4313,16 @@
       <c r="AB82" s="2"/>
     </row>
     <row r="83" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="23"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="22"/>
+      <c r="A83" s="26"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="30"/>
       <c r="F83" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G83" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -4361,16 +4347,16 @@
       <c r="AB83" s="2"/>
     </row>
     <row r="84" spans="1:28" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="23"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="22"/>
+      <c r="A84" s="26"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="30"/>
       <c r="F84" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G84" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -4395,16 +4381,16 @@
       <c r="AB84" s="2"/>
     </row>
     <row r="85" spans="1:28" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="23"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="10" t="s">
+      <c r="A85" s="26"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="G85" s="43" t="s">
         <v>121</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -4429,16 +4415,16 @@
       <c r="AB85" s="2"/>
     </row>
     <row r="86" spans="1:28" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="23"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>126</v>
+      <c r="A86" s="26"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G86" s="42" t="s">
+        <v>125</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -4463,24 +4449,24 @@
       <c r="AB86" s="2"/>
     </row>
     <row r="87" spans="1:28" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="25">
+      <c r="A87" s="37">
         <v>11</v>
       </c>
-      <c r="B87" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23">
+      <c r="B87" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26">
         <v>2</v>
       </c>
-      <c r="E87" s="22" t="s">
-        <v>87</v>
+      <c r="E87" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="F87" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G87" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -4505,16 +4491,16 @@
       <c r="AB87" s="2"/>
     </row>
     <row r="88" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A88" s="25"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="22"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="30"/>
       <c r="F88" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G88" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -4539,16 +4525,16 @@
       <c r="AB88" s="2"/>
     </row>
     <row r="89" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="25"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="22"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="30"/>
       <c r="F89" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -4573,16 +4559,16 @@
       <c r="AB89" s="2"/>
     </row>
     <row r="90" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A90" s="25"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="22"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="30"/>
       <c r="F90" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G90" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -4607,16 +4593,16 @@
       <c r="AB90" s="2"/>
     </row>
     <row r="91" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="25"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="22"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="30"/>
       <c r="F91" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G91" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -4641,16 +4627,16 @@
       <c r="AB91" s="2"/>
     </row>
     <row r="92" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="25"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="22"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="30"/>
       <c r="F92" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -4675,16 +4661,16 @@
       <c r="AB92" s="2"/>
     </row>
     <row r="93" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="25"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="22"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="30"/>
       <c r="F93" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G93" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -4709,16 +4695,16 @@
       <c r="AB93" s="2"/>
     </row>
     <row r="94" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="25"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="22"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="30"/>
       <c r="F94" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G94" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -4743,16 +4729,16 @@
       <c r="AB94" s="2"/>
     </row>
     <row r="95" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="25"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="22"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="30"/>
       <c r="F95" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G95" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
@@ -4777,16 +4763,16 @@
       <c r="AB95" s="2"/>
     </row>
     <row r="96" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="25"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="22"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="30"/>
       <c r="F96" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -4811,16 +4797,16 @@
       <c r="AB96" s="2"/>
     </row>
     <row r="97" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="25"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="22"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="30"/>
       <c r="F97" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -4845,24 +4831,24 @@
       <c r="AB97" s="2"/>
     </row>
     <row r="98" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="25">
+      <c r="A98" s="37">
         <v>12</v>
       </c>
-      <c r="B98" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25">
+      <c r="B98" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37">
         <v>1</v>
       </c>
-      <c r="E98" s="26" t="s">
-        <v>87</v>
+      <c r="E98" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="F98" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G98" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -4887,16 +4873,16 @@
       <c r="AB98" s="2"/>
     </row>
     <row r="99" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A99" s="25"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="26"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="38"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="38"/>
       <c r="F99" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G99" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -4920,17 +4906,17 @@
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
     </row>
-    <row r="100" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A100" s="25"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="26"/>
+    <row r="100" spans="1:28" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="37"/>
+      <c r="B100" s="38"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="38"/>
       <c r="F100" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -4955,16 +4941,16 @@
       <c r="AB100" s="2"/>
     </row>
     <row r="101" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A101" s="25"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="26"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="38"/>
       <c r="F101" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G101" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -4989,16 +4975,16 @@
       <c r="AB101" s="2"/>
     </row>
     <row r="102" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="25"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="26"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="38"/>
       <c r="F102" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G102" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
@@ -5023,16 +5009,16 @@
       <c r="AB102" s="2"/>
     </row>
     <row r="103" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A103" s="25"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="26"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="38"/>
       <c r="F103" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G103" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
@@ -5057,16 +5043,16 @@
       <c r="AB103" s="2"/>
     </row>
     <row r="104" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="25"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="26"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="38"/>
       <c r="F104" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G104" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -5091,16 +5077,16 @@
       <c r="AB104" s="2"/>
     </row>
     <row r="105" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="25"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="26"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="38"/>
       <c r="F105" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -5125,16 +5111,16 @@
       <c r="AB105" s="2"/>
     </row>
     <row r="106" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="25"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="26"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="38"/>
       <c r="F106" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -5159,16 +5145,16 @@
       <c r="AB106" s="2"/>
     </row>
     <row r="107" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="25"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="26"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="38"/>
       <c r="F107" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
@@ -5193,16 +5179,16 @@
       <c r="AB107" s="2"/>
     </row>
     <row r="108" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A108" s="25"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="26"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="38"/>
       <c r="F108" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G108" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>139</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -5227,24 +5213,24 @@
       <c r="AB108" s="2"/>
     </row>
     <row r="109" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="23">
+      <c r="A109" s="26">
         <v>13</v>
       </c>
-      <c r="B109" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23">
+      <c r="B109" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26">
         <v>1</v>
       </c>
-      <c r="E109" s="22" t="s">
-        <v>87</v>
+      <c r="E109" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -5269,16 +5255,16 @@
       <c r="AB109" s="2"/>
     </row>
     <row r="110" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="23"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="22"/>
+      <c r="A110" s="26"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="30"/>
       <c r="F110" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -5303,16 +5289,16 @@
       <c r="AB110" s="2"/>
     </row>
     <row r="111" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A111" s="23"/>
-      <c r="B111" s="22"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="22"/>
+      <c r="A111" s="26"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="30"/>
       <c r="F111" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -5337,16 +5323,16 @@
       <c r="AB111" s="2"/>
     </row>
     <row r="112" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="23"/>
-      <c r="B112" s="22"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="22"/>
+      <c r="A112" s="26"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="30"/>
       <c r="F112" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -5371,24 +5357,24 @@
       <c r="AB112" s="2"/>
     </row>
     <row r="113" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="23">
+      <c r="A113" s="26">
         <v>14</v>
       </c>
-      <c r="B113" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23">
+      <c r="B113" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C113" s="26"/>
+      <c r="D113" s="26">
         <v>1</v>
       </c>
-      <c r="E113" s="22" t="s">
-        <v>87</v>
+      <c r="E113" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
@@ -5413,16 +5399,16 @@
       <c r="AB113" s="2"/>
     </row>
     <row r="114" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A114" s="23"/>
-      <c r="B114" s="22"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="22"/>
+      <c r="A114" s="26"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="30"/>
       <c r="F114" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -5447,16 +5433,16 @@
       <c r="AB114" s="2"/>
     </row>
     <row r="115" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A115" s="23"/>
-      <c r="B115" s="22"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="22"/>
+      <c r="A115" s="26"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="30"/>
       <c r="F115" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
@@ -5481,16 +5467,16 @@
       <c r="AB115" s="2"/>
     </row>
     <row r="116" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A116" s="23"/>
-      <c r="B116" s="22"/>
-      <c r="C116" s="23"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="22"/>
+      <c r="A116" s="26"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="30"/>
       <c r="F116" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G116" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="G116" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
@@ -5515,16 +5501,16 @@
       <c r="AB116" s="2"/>
     </row>
     <row r="117" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="23"/>
-      <c r="B117" s="22"/>
-      <c r="C117" s="23"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="22"/>
+      <c r="A117" s="26"/>
+      <c r="B117" s="30"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="30"/>
       <c r="F117" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
@@ -5549,16 +5535,16 @@
       <c r="AB117" s="2"/>
     </row>
     <row r="118" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="23"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="22"/>
+      <c r="A118" s="26"/>
+      <c r="B118" s="30"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="30"/>
       <c r="F118" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -5583,16 +5569,16 @@
       <c r="AB118" s="2"/>
     </row>
     <row r="119" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="23"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="23"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="22"/>
+      <c r="A119" s="26"/>
+      <c r="B119" s="30"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26"/>
+      <c r="E119" s="30"/>
       <c r="F119" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -5617,16 +5603,16 @@
       <c r="AB119" s="2"/>
     </row>
     <row r="120" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="23"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="23"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="22"/>
+      <c r="A120" s="26"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="30"/>
       <c r="F120" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -5651,16 +5637,16 @@
       <c r="AB120" s="2"/>
     </row>
     <row r="121" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="23"/>
-      <c r="B121" s="22"/>
-      <c r="C121" s="23"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="22"/>
+      <c r="A121" s="26"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="30"/>
       <c r="F121" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -5685,16 +5671,16 @@
       <c r="AB121" s="2"/>
     </row>
     <row r="122" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="23"/>
-      <c r="B122" s="22"/>
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="22"/>
+      <c r="A122" s="26"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="30"/>
       <c r="F122" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
@@ -5719,16 +5705,16 @@
       <c r="AB122" s="2"/>
     </row>
     <row r="123" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="23"/>
-      <c r="B123" s="22"/>
-      <c r="C123" s="23"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="22"/>
+      <c r="A123" s="26"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="30"/>
       <c r="F123" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
@@ -5753,16 +5739,16 @@
       <c r="AB123" s="2"/>
     </row>
     <row r="124" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="23"/>
-      <c r="B124" s="22"/>
-      <c r="C124" s="23"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="22"/>
+      <c r="A124" s="26"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="30"/>
       <c r="F124" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
@@ -5787,16 +5773,16 @@
       <c r="AB124" s="2"/>
     </row>
     <row r="125" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="23"/>
-      <c r="B125" s="22"/>
-      <c r="C125" s="23"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="22"/>
+      <c r="A125" s="26"/>
+      <c r="B125" s="30"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="26"/>
+      <c r="E125" s="30"/>
       <c r="F125" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
@@ -5821,16 +5807,16 @@
       <c r="AB125" s="2"/>
     </row>
     <row r="126" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="23"/>
-      <c r="B126" s="22"/>
-      <c r="C126" s="23"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="22"/>
+      <c r="A126" s="26"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="26"/>
+      <c r="D126" s="26"/>
+      <c r="E126" s="30"/>
       <c r="F126" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G126" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>177</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -5855,16 +5841,16 @@
       <c r="AB126" s="2"/>
     </row>
     <row r="127" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A127" s="23"/>
-      <c r="B127" s="22"/>
-      <c r="C127" s="23"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="22"/>
+      <c r="A127" s="26"/>
+      <c r="B127" s="30"/>
+      <c r="C127" s="26"/>
+      <c r="D127" s="26"/>
+      <c r="E127" s="30"/>
       <c r="F127" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G127" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -5889,24 +5875,24 @@
       <c r="AB127" s="2"/>
     </row>
     <row r="128" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="23">
+      <c r="A128" s="26">
         <v>15</v>
       </c>
-      <c r="B128" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C128" s="23"/>
-      <c r="D128" s="23">
+      <c r="B128" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26">
         <v>2</v>
       </c>
-      <c r="E128" s="22" t="s">
-        <v>87</v>
+      <c r="E128" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="F128" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G128" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -5931,16 +5917,16 @@
       <c r="AB128" s="2"/>
     </row>
     <row r="129" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A129" s="23"/>
-      <c r="B129" s="22"/>
-      <c r="C129" s="23"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="22"/>
+      <c r="A129" s="26"/>
+      <c r="B129" s="30"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="30"/>
       <c r="F129" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G129" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -5965,16 +5951,16 @@
       <c r="AB129" s="2"/>
     </row>
     <row r="130" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A130" s="23"/>
-      <c r="B130" s="22"/>
-      <c r="C130" s="23"/>
-      <c r="D130" s="23"/>
-      <c r="E130" s="22"/>
+      <c r="A130" s="26"/>
+      <c r="B130" s="30"/>
+      <c r="C130" s="26"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="30"/>
       <c r="F130" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -5999,16 +5985,16 @@
       <c r="AB130" s="2"/>
     </row>
     <row r="131" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A131" s="23"/>
-      <c r="B131" s="22"/>
-      <c r="C131" s="23"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="22"/>
+      <c r="A131" s="26"/>
+      <c r="B131" s="30"/>
+      <c r="C131" s="26"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="30"/>
       <c r="F131" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G131" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
@@ -6033,16 +6019,16 @@
       <c r="AB131" s="2"/>
     </row>
     <row r="132" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="23"/>
-      <c r="B132" s="22"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="22"/>
+      <c r="A132" s="26"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="30"/>
       <c r="F132" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G132" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="G132" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -6067,16 +6053,16 @@
       <c r="AB132" s="2"/>
     </row>
     <row r="133" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A133" s="23"/>
-      <c r="B133" s="22"/>
-      <c r="C133" s="23"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="22"/>
+      <c r="A133" s="26"/>
+      <c r="B133" s="30"/>
+      <c r="C133" s="26"/>
+      <c r="D133" s="26"/>
+      <c r="E133" s="30"/>
       <c r="F133" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G133" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="G133" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
@@ -6101,16 +6087,16 @@
       <c r="AB133" s="2"/>
     </row>
     <row r="134" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="23"/>
-      <c r="B134" s="22"/>
-      <c r="C134" s="23"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="22"/>
+      <c r="A134" s="26"/>
+      <c r="B134" s="30"/>
+      <c r="C134" s="26"/>
+      <c r="D134" s="26"/>
+      <c r="E134" s="30"/>
       <c r="F134" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G134" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="G134" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
@@ -6135,19 +6121,19 @@
       <c r="AB134" s="2"/>
     </row>
     <row r="135" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A135" s="23"/>
-      <c r="B135" s="22"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="22"/>
+      <c r="A135" s="26"/>
+      <c r="B135" s="30"/>
+      <c r="C135" s="26"/>
+      <c r="D135" s="26"/>
+      <c r="E135" s="30"/>
       <c r="F135" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H135" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
@@ -6171,16 +6157,16 @@
       <c r="AB135" s="2"/>
     </row>
     <row r="136" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="23"/>
-      <c r="B136" s="22"/>
-      <c r="C136" s="23"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="22"/>
+      <c r="A136" s="26"/>
+      <c r="B136" s="30"/>
+      <c r="C136" s="26"/>
+      <c r="D136" s="26"/>
+      <c r="E136" s="30"/>
       <c r="F136" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
@@ -6205,16 +6191,16 @@
       <c r="AB136" s="2"/>
     </row>
     <row r="137" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A137" s="23"/>
-      <c r="B137" s="22"/>
-      <c r="C137" s="23"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="22"/>
+      <c r="A137" s="26"/>
+      <c r="B137" s="30"/>
+      <c r="C137" s="26"/>
+      <c r="D137" s="26"/>
+      <c r="E137" s="30"/>
       <c r="F137" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
@@ -6239,16 +6225,16 @@
       <c r="AB137" s="2"/>
     </row>
     <row r="138" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="23"/>
-      <c r="B138" s="22"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="22"/>
+      <c r="A138" s="26"/>
+      <c r="B138" s="30"/>
+      <c r="C138" s="26"/>
+      <c r="D138" s="26"/>
+      <c r="E138" s="30"/>
       <c r="F138" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
@@ -6273,24 +6259,24 @@
       <c r="AB138" s="2"/>
     </row>
     <row r="139" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A139" s="23">
+      <c r="A139" s="26">
         <v>16</v>
       </c>
-      <c r="B139" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C139" s="23"/>
-      <c r="D139" s="23">
+      <c r="B139" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C139" s="26"/>
+      <c r="D139" s="26">
         <v>2</v>
       </c>
-      <c r="E139" s="27" t="s">
+      <c r="E139" s="39" t="s">
         <v>21</v>
       </c>
       <c r="F139" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
@@ -6315,16 +6301,16 @@
       <c r="AB139" s="2"/>
     </row>
     <row r="140" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A140" s="23"/>
-      <c r="B140" s="28"/>
-      <c r="C140" s="23"/>
-      <c r="D140" s="23"/>
-      <c r="E140" s="27"/>
+      <c r="A140" s="26"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="26"/>
+      <c r="D140" s="26"/>
+      <c r="E140" s="39"/>
       <c r="F140" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
@@ -6349,16 +6335,16 @@
       <c r="AB140" s="2"/>
     </row>
     <row r="141" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A141" s="23"/>
-      <c r="B141" s="28"/>
-      <c r="C141" s="23"/>
-      <c r="D141" s="23"/>
-      <c r="E141" s="27"/>
+      <c r="A141" s="26"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="26"/>
+      <c r="D141" s="26"/>
+      <c r="E141" s="39"/>
       <c r="F141" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
@@ -6383,16 +6369,16 @@
       <c r="AB141" s="2"/>
     </row>
     <row r="142" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A142" s="23"/>
-      <c r="B142" s="28"/>
-      <c r="C142" s="23"/>
-      <c r="D142" s="23"/>
-      <c r="E142" s="27"/>
+      <c r="A142" s="26"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="26"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="39"/>
       <c r="F142" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
@@ -6417,16 +6403,16 @@
       <c r="AB142" s="2"/>
     </row>
     <row r="143" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A143" s="23"/>
-      <c r="B143" s="28"/>
-      <c r="C143" s="23"/>
-      <c r="D143" s="23"/>
-      <c r="E143" s="27"/>
+      <c r="A143" s="26"/>
+      <c r="B143" s="22"/>
+      <c r="C143" s="26"/>
+      <c r="D143" s="26"/>
+      <c r="E143" s="39"/>
       <c r="F143" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
@@ -6451,16 +6437,16 @@
       <c r="AB143" s="2"/>
     </row>
     <row r="144" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A144" s="23"/>
-      <c r="B144" s="28"/>
-      <c r="C144" s="23"/>
-      <c r="D144" s="23"/>
-      <c r="E144" s="27"/>
+      <c r="A144" s="26"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="26"/>
+      <c r="D144" s="26"/>
+      <c r="E144" s="39"/>
       <c r="F144" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -6485,24 +6471,24 @@
       <c r="AB144" s="2"/>
     </row>
     <row r="145" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A145" s="23">
+      <c r="A145" s="26">
         <v>17</v>
       </c>
-      <c r="B145" s="28" t="s">
+      <c r="B145" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C145" s="26"/>
+      <c r="D145" s="26">
+        <v>2</v>
+      </c>
+      <c r="E145" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F145" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G145" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="C145" s="23"/>
-      <c r="D145" s="23">
-        <v>2</v>
-      </c>
-      <c r="E145" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F145" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="G145" s="10" t="s">
-        <v>212</v>
       </c>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -6527,16 +6513,16 @@
       <c r="AB145" s="2"/>
     </row>
     <row r="146" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A146" s="23"/>
-      <c r="B146" s="28"/>
-      <c r="C146" s="23"/>
-      <c r="D146" s="23"/>
-      <c r="E146" s="27"/>
+      <c r="A146" s="26"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="26"/>
+      <c r="D146" s="26"/>
+      <c r="E146" s="39"/>
       <c r="F146" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
@@ -6561,16 +6547,16 @@
       <c r="AB146" s="2"/>
     </row>
     <row r="147" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A147" s="23"/>
-      <c r="B147" s="28"/>
-      <c r="C147" s="23"/>
-      <c r="D147" s="23"/>
-      <c r="E147" s="27"/>
+      <c r="A147" s="26"/>
+      <c r="B147" s="22"/>
+      <c r="C147" s="26"/>
+      <c r="D147" s="26"/>
+      <c r="E147" s="39"/>
       <c r="F147" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G147" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
@@ -6595,16 +6581,16 @@
       <c r="AB147" s="2"/>
     </row>
     <row r="148" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A148" s="23"/>
-      <c r="B148" s="28"/>
-      <c r="C148" s="23"/>
-      <c r="D148" s="23"/>
-      <c r="E148" s="27"/>
+      <c r="A148" s="26"/>
+      <c r="B148" s="22"/>
+      <c r="C148" s="26"/>
+      <c r="D148" s="26"/>
+      <c r="E148" s="39"/>
       <c r="F148" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -6629,16 +6615,16 @@
       <c r="AB148" s="2"/>
     </row>
     <row r="149" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A149" s="23"/>
-      <c r="B149" s="28"/>
-      <c r="C149" s="23"/>
-      <c r="D149" s="23"/>
-      <c r="E149" s="27"/>
+      <c r="A149" s="26"/>
+      <c r="B149" s="22"/>
+      <c r="C149" s="26"/>
+      <c r="D149" s="26"/>
+      <c r="E149" s="39"/>
       <c r="F149" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
@@ -6663,16 +6649,16 @@
       <c r="AB149" s="2"/>
     </row>
     <row r="150" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A150" s="23"/>
-      <c r="B150" s="28"/>
-      <c r="C150" s="23"/>
-      <c r="D150" s="23"/>
-      <c r="E150" s="27"/>
+      <c r="A150" s="26"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="26"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="39"/>
       <c r="F150" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
@@ -6697,16 +6683,16 @@
       <c r="AB150" s="2"/>
     </row>
     <row r="151" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A151" s="23"/>
-      <c r="B151" s="28"/>
-      <c r="C151" s="23"/>
-      <c r="D151" s="23"/>
-      <c r="E151" s="27"/>
+      <c r="A151" s="26"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="26"/>
+      <c r="D151" s="26"/>
+      <c r="E151" s="39"/>
       <c r="F151" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
@@ -6731,24 +6717,24 @@
       <c r="AB151" s="2"/>
     </row>
     <row r="152" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A152" s="30">
+      <c r="A152" s="22">
         <v>18</v>
       </c>
-      <c r="B152" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="C152" s="23"/>
-      <c r="D152" s="23">
+      <c r="B152" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C152" s="26"/>
+      <c r="D152" s="26">
         <v>1</v>
       </c>
-      <c r="E152" s="22" t="s">
-        <v>87</v>
+      <c r="E152" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="F152" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G152" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="G152" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
@@ -6773,16 +6759,16 @@
       <c r="AB152" s="2"/>
     </row>
     <row r="153" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="31"/>
-      <c r="B153" s="22"/>
-      <c r="C153" s="23"/>
-      <c r="D153" s="23"/>
-      <c r="E153" s="22"/>
+      <c r="A153" s="22"/>
+      <c r="B153" s="30"/>
+      <c r="C153" s="26"/>
+      <c r="D153" s="26"/>
+      <c r="E153" s="30"/>
       <c r="F153" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="G153" s="29" t="s">
-        <v>231</v>
+        <v>228</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
@@ -6806,17 +6792,17 @@
       <c r="AA153" s="2"/>
       <c r="AB153" s="2"/>
     </row>
-    <row r="154" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A154" s="31"/>
-      <c r="B154" s="22"/>
-      <c r="C154" s="23"/>
-      <c r="D154" s="23"/>
-      <c r="E154" s="22"/>
-      <c r="F154" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="G154" s="10" t="s">
-        <v>233</v>
+    <row r="154" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="22"/>
+      <c r="B154" s="30"/>
+      <c r="C154" s="26"/>
+      <c r="D154" s="26"/>
+      <c r="E154" s="30"/>
+      <c r="F154" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="G154" s="31" t="s">
+        <v>231</v>
       </c>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
@@ -6840,18 +6826,14 @@
       <c r="AA154" s="2"/>
       <c r="AB154" s="2"/>
     </row>
-    <row r="155" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A155" s="31"/>
-      <c r="B155" s="22"/>
-      <c r="C155" s="23"/>
-      <c r="D155" s="23"/>
-      <c r="E155" s="22"/>
-      <c r="F155" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="G155" s="10" t="s">
-        <v>235</v>
-      </c>
+    <row r="155" spans="1:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="22"/>
+      <c r="B155" s="30"/>
+      <c r="C155" s="26"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="30"/>
+      <c r="F155" s="31"/>
+      <c r="G155" s="31"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
@@ -6874,18 +6856,14 @@
       <c r="AA155" s="2"/>
       <c r="AB155" s="2"/>
     </row>
-    <row r="156" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A156" s="31"/>
-      <c r="B156" s="22"/>
-      <c r="C156" s="23"/>
-      <c r="D156" s="23"/>
-      <c r="E156" s="22"/>
-      <c r="F156" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="G156" s="10" t="s">
-        <v>237</v>
-      </c>
+    <row r="156" spans="1:28" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="22"/>
+      <c r="B156" s="30"/>
+      <c r="C156" s="26"/>
+      <c r="D156" s="26"/>
+      <c r="E156" s="30"/>
+      <c r="F156" s="31"/>
+      <c r="G156" s="31"/>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
@@ -6908,18 +6886,14 @@
       <c r="AA156" s="2"/>
       <c r="AB156" s="2"/>
     </row>
-    <row r="157" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A157" s="31"/>
-      <c r="B157" s="22"/>
-      <c r="C157" s="23"/>
-      <c r="D157" s="23"/>
-      <c r="E157" s="22"/>
-      <c r="F157" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="G157" s="10" t="s">
-        <v>239</v>
-      </c>
+    <row r="157" spans="1:28" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="22"/>
+      <c r="B157" s="30"/>
+      <c r="C157" s="26"/>
+      <c r="D157" s="26"/>
+      <c r="E157" s="30"/>
+      <c r="F157" s="31"/>
+      <c r="G157" s="31"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
@@ -6942,18 +6916,14 @@
       <c r="AA157" s="2"/>
       <c r="AB157" s="2"/>
     </row>
-    <row r="158" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A158" s="31"/>
-      <c r="B158" s="22"/>
-      <c r="C158" s="23"/>
-      <c r="D158" s="23"/>
-      <c r="E158" s="22"/>
-      <c r="F158" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="G158" s="10" t="s">
-        <v>241</v>
-      </c>
+    <row r="158" spans="1:28" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="22"/>
+      <c r="B158" s="30"/>
+      <c r="C158" s="26"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="30"/>
+      <c r="F158" s="31"/>
+      <c r="G158" s="31"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
@@ -6976,18 +6946,14 @@
       <c r="AA158" s="2"/>
       <c r="AB158" s="2"/>
     </row>
-    <row r="159" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A159" s="31"/>
-      <c r="B159" s="22"/>
-      <c r="C159" s="23"/>
-      <c r="D159" s="23"/>
-      <c r="E159" s="22"/>
-      <c r="F159" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="G159" s="10" t="s">
-        <v>280</v>
-      </c>
+    <row r="159" spans="1:28" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="22"/>
+      <c r="B159" s="30"/>
+      <c r="C159" s="26"/>
+      <c r="D159" s="26"/>
+      <c r="E159" s="30"/>
+      <c r="F159" s="31"/>
+      <c r="G159" s="31"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
@@ -7010,18 +6976,14 @@
       <c r="AA159" s="2"/>
       <c r="AB159" s="2"/>
     </row>
-    <row r="160" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A160" s="31"/>
-      <c r="B160" s="22"/>
-      <c r="C160" s="23"/>
-      <c r="D160" s="23"/>
-      <c r="E160" s="22"/>
-      <c r="F160" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="G160" s="10" t="s">
-        <v>281</v>
-      </c>
+    <row r="160" spans="1:28" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="22"/>
+      <c r="B160" s="30"/>
+      <c r="C160" s="26"/>
+      <c r="D160" s="26"/>
+      <c r="E160" s="30"/>
+      <c r="F160" s="31"/>
+      <c r="G160" s="31"/>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
@@ -7043,14 +7005,14 @@
       <c r="AA160" s="2"/>
       <c r="AB160" s="2"/>
     </row>
-    <row r="161" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A161" s="31"/>
-      <c r="B161" s="13"/>
-      <c r="C161" s="19"/>
-      <c r="D161" s="19"/>
-      <c r="E161" s="13"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
+    <row r="161" spans="1:28" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="22"/>
+      <c r="B161" s="30"/>
+      <c r="C161" s="26"/>
+      <c r="D161" s="26"/>
+      <c r="E161" s="30"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="31"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -7074,24 +7036,24 @@
       <c r="AB161" s="2"/>
     </row>
     <row r="162" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="28">
+      <c r="A162" s="22">
         <v>19</v>
       </c>
-      <c r="B162" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="C162" s="23"/>
-      <c r="D162" s="23">
+      <c r="B162" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C162" s="32"/>
+      <c r="D162" s="32">
         <v>2</v>
       </c>
-      <c r="E162" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F162" s="32" t="s">
-        <v>243</v>
+      <c r="E162" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F162" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>245</v>
+        <v>107</v>
       </c>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
@@ -7115,17 +7077,17 @@
       <c r="AA162" s="2"/>
       <c r="AB162" s="2"/>
     </row>
-    <row r="163" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A163" s="28"/>
-      <c r="B163" s="22"/>
-      <c r="C163" s="23"/>
-      <c r="D163" s="23"/>
-      <c r="E163" s="22"/>
-      <c r="F163" s="32" t="s">
-        <v>244</v>
+    <row r="163" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A163" s="22"/>
+      <c r="B163" s="40"/>
+      <c r="C163" s="32"/>
+      <c r="D163" s="32"/>
+      <c r="E163" s="30"/>
+      <c r="F163" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
@@ -7150,16 +7112,16 @@
       <c r="AB163" s="2"/>
     </row>
     <row r="164" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="28"/>
-      <c r="B164" s="22"/>
-      <c r="C164" s="23"/>
-      <c r="D164" s="23"/>
-      <c r="E164" s="22"/>
-      <c r="F164" s="32" t="s">
-        <v>12</v>
+      <c r="A164" s="22"/>
+      <c r="B164" s="40"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="32"/>
+      <c r="E164" s="30"/>
+      <c r="F164" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
@@ -7183,17 +7145,25 @@
       <c r="AA164" s="2"/>
       <c r="AB164" s="2"/>
     </row>
-    <row r="165" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A165" s="28"/>
-      <c r="B165" s="22"/>
-      <c r="C165" s="23"/>
-      <c r="D165" s="23"/>
-      <c r="E165" s="22"/>
-      <c r="F165" s="33" t="s">
-        <v>248</v>
+    <row r="165" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="22">
+        <v>20</v>
+      </c>
+      <c r="B165" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="C165" s="32"/>
+      <c r="D165" s="32">
+        <v>2</v>
+      </c>
+      <c r="E165" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F165" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="G165" s="10" t="s">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
@@ -7217,17 +7187,17 @@
       <c r="AA165" s="2"/>
       <c r="AB165" s="2"/>
     </row>
-    <row r="166" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A166" s="28"/>
-      <c r="B166" s="22"/>
-      <c r="C166" s="23"/>
-      <c r="D166" s="23"/>
-      <c r="E166" s="22"/>
-      <c r="F166" s="33" t="s">
-        <v>249</v>
+    <row r="166" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A166" s="22"/>
+      <c r="B166" s="30"/>
+      <c r="C166" s="32"/>
+      <c r="D166" s="32"/>
+      <c r="E166" s="30"/>
+      <c r="F166" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="G166" s="10" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
@@ -7251,17 +7221,17 @@
       <c r="AA166" s="2"/>
       <c r="AB166" s="2"/>
     </row>
-    <row r="167" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A167" s="28"/>
-      <c r="B167" s="22"/>
-      <c r="C167" s="23"/>
-      <c r="D167" s="23"/>
-      <c r="E167" s="22"/>
-      <c r="F167" s="32" t="s">
-        <v>253</v>
+    <row r="167" spans="1:28" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A167" s="22"/>
+      <c r="B167" s="30"/>
+      <c r="C167" s="32"/>
+      <c r="D167" s="32"/>
+      <c r="E167" s="30"/>
+      <c r="F167" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="G167" s="10" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
@@ -7285,17 +7255,25 @@
       <c r="AA167" s="2"/>
       <c r="AB167" s="2"/>
     </row>
-    <row r="168" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A168" s="28"/>
-      <c r="B168" s="22"/>
+    <row r="168" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="19">
+        <v>21</v>
+      </c>
+      <c r="B168" s="27" t="s">
+        <v>256</v>
+      </c>
       <c r="C168" s="23"/>
-      <c r="D168" s="23"/>
-      <c r="E168" s="22"/>
-      <c r="F168" s="32" t="s">
-        <v>254</v>
+      <c r="D168" s="23">
+        <v>2</v>
+      </c>
+      <c r="E168" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F168" s="13" t="s">
+        <v>232</v>
       </c>
       <c r="G168" s="10" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
@@ -7320,16 +7298,16 @@
       <c r="AB168" s="2"/>
     </row>
     <row r="169" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A169" s="28"/>
-      <c r="B169" s="22"/>
-      <c r="C169" s="23"/>
-      <c r="D169" s="23"/>
-      <c r="E169" s="22"/>
-      <c r="F169" s="32" t="s">
-        <v>255</v>
+      <c r="A169" s="20"/>
+      <c r="B169" s="28"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="28"/>
+      <c r="F169" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
@@ -7353,16 +7331,16 @@
       <c r="AB169" s="2"/>
     </row>
     <row r="170" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A170" s="28"/>
-      <c r="B170" s="22"/>
-      <c r="C170" s="23"/>
-      <c r="D170" s="23"/>
-      <c r="E170" s="22"/>
-      <c r="F170" s="32" t="s">
-        <v>258</v>
+      <c r="A170" s="21"/>
+      <c r="B170" s="29"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="25"/>
+      <c r="E170" s="29"/>
+      <c r="F170" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="G170" s="10" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
@@ -7386,17 +7364,25 @@
       <c r="AA170" s="2"/>
       <c r="AB170" s="2"/>
     </row>
-    <row r="171" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A171" s="28"/>
-      <c r="B171" s="22"/>
+    <row r="171" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="19">
+        <v>22</v>
+      </c>
+      <c r="B171" s="27" t="s">
+        <v>257</v>
+      </c>
       <c r="C171" s="23"/>
-      <c r="D171" s="23"/>
-      <c r="E171" s="22"/>
-      <c r="F171" s="32" t="s">
-        <v>260</v>
+      <c r="D171" s="23">
+        <v>2</v>
+      </c>
+      <c r="E171" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F171" s="14" t="s">
+        <v>244</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
@@ -7421,16 +7407,16 @@
       <c r="AB171" s="2"/>
     </row>
     <row r="172" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="28"/>
-      <c r="B172" s="22"/>
-      <c r="C172" s="23"/>
-      <c r="D172" s="23"/>
-      <c r="E172" s="22"/>
-      <c r="F172" s="32" t="s">
-        <v>261</v>
+      <c r="A172" s="20"/>
+      <c r="B172" s="28"/>
+      <c r="C172" s="24"/>
+      <c r="D172" s="24"/>
+      <c r="E172" s="28"/>
+      <c r="F172" s="14" t="s">
+        <v>245</v>
       </c>
       <c r="G172" s="10" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
@@ -7455,16 +7441,16 @@
       <c r="AB172" s="2"/>
     </row>
     <row r="173" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A173" s="28"/>
-      <c r="B173" s="22"/>
-      <c r="C173" s="23"/>
-      <c r="D173" s="23"/>
-      <c r="E173" s="22"/>
-      <c r="F173" s="32" t="s">
-        <v>264</v>
+      <c r="A173" s="21"/>
+      <c r="B173" s="29"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="25"/>
+      <c r="E173" s="29"/>
+      <c r="F173" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
@@ -7488,17 +7474,25 @@
       <c r="AA173" s="2"/>
       <c r="AB173" s="2"/>
     </row>
-    <row r="174" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A174" s="28"/>
-      <c r="B174" s="22"/>
+    <row r="174" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="19">
+        <v>23</v>
+      </c>
+      <c r="B174" s="27" t="s">
+        <v>258</v>
+      </c>
       <c r="C174" s="23"/>
-      <c r="D174" s="23"/>
-      <c r="E174" s="22"/>
-      <c r="F174" s="32" t="s">
-        <v>266</v>
+      <c r="D174" s="23">
+        <v>2</v>
+      </c>
+      <c r="E174" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F174" s="13" t="s">
+        <v>248</v>
       </c>
       <c r="G174" s="10" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
@@ -7523,16 +7517,16 @@
       <c r="AB174" s="2"/>
     </row>
     <row r="175" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A175" s="28"/>
-      <c r="B175" s="22"/>
-      <c r="C175" s="23"/>
-      <c r="D175" s="23"/>
-      <c r="E175" s="22"/>
-      <c r="F175" s="32" t="s">
-        <v>267</v>
+      <c r="A175" s="20"/>
+      <c r="B175" s="28"/>
+      <c r="C175" s="24"/>
+      <c r="D175" s="24"/>
+      <c r="E175" s="28"/>
+      <c r="F175" s="13" t="s">
+        <v>249</v>
       </c>
       <c r="G175" s="10" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
@@ -7557,16 +7551,16 @@
       <c r="AB175" s="2"/>
     </row>
     <row r="176" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A176" s="28"/>
-      <c r="B176" s="22"/>
-      <c r="C176" s="23"/>
-      <c r="D176" s="23"/>
-      <c r="E176" s="22"/>
-      <c r="F176" s="32" t="s">
-        <v>268</v>
+      <c r="A176" s="21"/>
+      <c r="B176" s="29"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="25"/>
+      <c r="E176" s="29"/>
+      <c r="F176" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="G176" s="10" t="s">
-        <v>271</v>
+        <v>25</v>
       </c>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
@@ -7590,17 +7584,25 @@
       <c r="AA176" s="2"/>
       <c r="AB176" s="2"/>
     </row>
-    <row r="177" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A177" s="28"/>
-      <c r="B177" s="22"/>
-      <c r="C177" s="23"/>
-      <c r="D177" s="23"/>
-      <c r="E177" s="22"/>
-      <c r="F177" s="32" t="s">
-        <v>272</v>
+    <row r="177" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="22">
+        <v>24</v>
+      </c>
+      <c r="B177" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="C177" s="26"/>
+      <c r="D177" s="26">
+        <v>2</v>
+      </c>
+      <c r="E177" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177" s="10" t="s">
+        <v>252</v>
       </c>
       <c r="G177" s="10" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
@@ -7624,17 +7626,17 @@
       <c r="AA177" s="2"/>
       <c r="AB177" s="2"/>
     </row>
-    <row r="178" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="28"/>
-      <c r="B178" s="22"/>
-      <c r="C178" s="23"/>
-      <c r="D178" s="23"/>
-      <c r="E178" s="22"/>
-      <c r="F178" s="32" t="s">
-        <v>274</v>
+    <row r="178" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="22"/>
+      <c r="B178" s="30"/>
+      <c r="C178" s="26"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="30"/>
+      <c r="F178" s="10" t="s">
+        <v>253</v>
       </c>
       <c r="G178" s="10" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
@@ -7659,16 +7661,16 @@
       <c r="AB178" s="2"/>
     </row>
     <row r="179" spans="1:28" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A179" s="28"/>
-      <c r="B179" s="22"/>
-      <c r="C179" s="23"/>
-      <c r="D179" s="23"/>
-      <c r="E179" s="22"/>
-      <c r="F179" s="32" t="s">
-        <v>276</v>
+      <c r="A179" s="22"/>
+      <c r="B179" s="30"/>
+      <c r="C179" s="26"/>
+      <c r="D179" s="26"/>
+      <c r="E179" s="30"/>
+      <c r="F179" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="G179" s="10" t="s">
-        <v>277</v>
+        <v>25</v>
       </c>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
@@ -7692,7 +7694,14 @@
       <c r="AA179" s="2"/>
       <c r="AB179" s="2"/>
     </row>
-    <row r="180" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="15"/>
+      <c r="B180" s="16"/>
+      <c r="C180" s="17"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="18"/>
+      <c r="G180" s="18"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
@@ -7716,6 +7725,13 @@
       <c r="AB180" s="2"/>
     </row>
     <row r="181" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A181" s="15"/>
+      <c r="B181" s="16"/>
+      <c r="C181" s="17"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="16"/>
+      <c r="F181" s="18"/>
+      <c r="G181" s="18"/>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
@@ -7739,6 +7755,13 @@
       <c r="AB181" s="2"/>
     </row>
     <row r="182" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A182" s="15"/>
+      <c r="B182" s="16"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="18"/>
+      <c r="G182" s="18"/>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
@@ -7762,6 +7785,11 @@
       <c r="AB182" s="2"/>
     </row>
     <row r="183" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A183" s="15"/>
+      <c r="B183" s="16"/>
+      <c r="C183" s="17"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="16"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
@@ -7785,6 +7813,11 @@
       <c r="AB183" s="2"/>
     </row>
     <row r="184" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A184" s="15"/>
+      <c r="B184" s="16"/>
+      <c r="C184" s="17"/>
+      <c r="D184" s="17"/>
+      <c r="E184" s="16"/>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
@@ -7808,13 +7841,11 @@
       <c r="AB184" s="2"/>
     </row>
     <row r="185" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
+      <c r="A185" s="15"/>
+      <c r="B185" s="16"/>
+      <c r="C185" s="17"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="16"/>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
@@ -7838,13 +7869,6 @@
       <c r="AB185" s="2"/>
     </row>
     <row r="186" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
@@ -7868,13 +7892,6 @@
       <c r="AB186" s="2"/>
     </row>
     <row r="187" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
@@ -7898,13 +7915,6 @@
       <c r="AB187" s="2"/>
     </row>
     <row r="188" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
@@ -7928,13 +7938,6 @@
       <c r="AB188" s="2"/>
     </row>
     <row r="189" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
@@ -7958,13 +7961,6 @@
       <c r="AB189" s="2"/>
     </row>
     <row r="190" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
@@ -7988,13 +7984,6 @@
       <c r="AB190" s="2"/>
     </row>
     <row r="191" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
@@ -8018,13 +8007,6 @@
       <c r="AB191" s="2"/>
     </row>
     <row r="192" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
@@ -8048,13 +8030,6 @@
       <c r="AB192" s="2"/>
     </row>
     <row r="193" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
@@ -8078,13 +8053,6 @@
       <c r="AB193" s="2"/>
     </row>
     <row r="194" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
@@ -8108,13 +8076,6 @@
       <c r="AB194" s="2"/>
     </row>
     <row r="195" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
@@ -8138,13 +8099,6 @@
       <c r="AB195" s="2"/>
     </row>
     <row r="196" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
@@ -8168,13 +8122,6 @@
       <c r="AB196" s="2"/>
     </row>
     <row r="197" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
@@ -28178,24 +28125,17 @@
       <c r="AB863" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
+  <mergeCells count="122">
     <mergeCell ref="A152:A161"/>
-    <mergeCell ref="E162:E179"/>
-    <mergeCell ref="D162:D179"/>
-    <mergeCell ref="C162:C179"/>
-    <mergeCell ref="B162:B179"/>
-    <mergeCell ref="A162:A179"/>
     <mergeCell ref="B152:B161"/>
     <mergeCell ref="C152:C161"/>
     <mergeCell ref="D152:D161"/>
     <mergeCell ref="E152:E161"/>
-    <mergeCell ref="A98:A108"/>
-    <mergeCell ref="E109:E112"/>
-    <mergeCell ref="D109:D112"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A145:A151"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="D162:D164"/>
+    <mergeCell ref="E162:E164"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="C12:C14"/>
@@ -28206,11 +28146,6 @@
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="E25:E30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A25:A30"/>
     <mergeCell ref="E145:E151"/>
     <mergeCell ref="D145:D151"/>
     <mergeCell ref="C145:C151"/>
@@ -28219,6 +28154,7 @@
     <mergeCell ref="D139:D144"/>
     <mergeCell ref="C139:C144"/>
     <mergeCell ref="B139:B144"/>
+    <mergeCell ref="A145:A151"/>
     <mergeCell ref="A139:A144"/>
     <mergeCell ref="A128:A138"/>
     <mergeCell ref="E17:E24"/>
@@ -28235,14 +28171,28 @@
     <mergeCell ref="D55:D76"/>
     <mergeCell ref="E128:E138"/>
     <mergeCell ref="D128:D138"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A98:A108"/>
+    <mergeCell ref="E109:E112"/>
+    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="C98:C108"/>
+    <mergeCell ref="B98:B108"/>
+    <mergeCell ref="A77:A86"/>
     <mergeCell ref="C128:C138"/>
     <mergeCell ref="B128:B138"/>
     <mergeCell ref="E113:E127"/>
     <mergeCell ref="D113:D127"/>
     <mergeCell ref="C113:C127"/>
     <mergeCell ref="B113:B127"/>
-    <mergeCell ref="A113:A127"/>
-    <mergeCell ref="C55:C76"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A109:A112"/>
     <mergeCell ref="B55:B76"/>
     <mergeCell ref="A55:A76"/>
     <mergeCell ref="E77:E86"/>
@@ -28252,28 +28202,52 @@
     <mergeCell ref="C87:C97"/>
     <mergeCell ref="B87:B97"/>
     <mergeCell ref="A87:A97"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="C98:C108"/>
-    <mergeCell ref="B98:B108"/>
-    <mergeCell ref="A77:A86"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="D165:D167"/>
+    <mergeCell ref="E165:E167"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="E36:E50"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="D77:D86"/>
+    <mergeCell ref="C77:C86"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="B36:B50"/>
     <mergeCell ref="A36:A50"/>
     <mergeCell ref="C36:C50"/>
     <mergeCell ref="D36:D50"/>
     <mergeCell ref="B31:B35"/>
-    <mergeCell ref="E36:E50"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="D77:D86"/>
-    <mergeCell ref="C77:C86"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A113:A127"/>
+    <mergeCell ref="C55:C76"/>
+    <mergeCell ref="E171:E173"/>
+    <mergeCell ref="E174:E176"/>
+    <mergeCell ref="E177:E179"/>
+    <mergeCell ref="D171:D173"/>
+    <mergeCell ref="D174:D176"/>
+    <mergeCell ref="D177:D179"/>
+    <mergeCell ref="F154:F161"/>
+    <mergeCell ref="G154:G161"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="D168:D170"/>
+    <mergeCell ref="E168:E170"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="C177:C179"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="B177:B179"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
